--- a/tool/3_公式/color.xlsx
+++ b/tool/3_公式/color.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
   <si>
     <t>color-R</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,10 +169,6 @@
     <t>94ADFF</t>
   </si>
   <si>
-    <t>00ff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,6 +178,14 @@
   </si>
   <si>
     <t>#2E8B57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#00ffff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FFFF00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +636,7 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1146,28 +1150,28 @@
         <f t="shared" si="10"/>
         <v>E8E0E8</v>
       </c>
-      <c r="H9" s="9">
-        <v>585858</v>
+      <c r="H9" t="s">
+        <v>43</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="11"/>
-        <v>11</v>
+        <f>INT(HEX2DEC(LEFT(RIGHT($H9,6),2))/2^3)</f>
+        <v>31</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="12"/>
-        <v>22</v>
+        <f>INT(HEX2DEC(MID(RIGHT($H9,6),3,2))/2^2)</f>
+        <v>63</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="13"/>
-        <v>11</v>
+        <f>INT(HEX2DEC(RIGHT(RIGHT($H9,6),2))/2^3)</f>
+        <v>0</v>
       </c>
       <c r="L9" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>5ACB</v>
+        <v>FFE0</v>
       </c>
       <c r="M9" s="11">
         <f t="shared" si="14"/>
-        <v>23243</v>
+        <v>65504</v>
       </c>
       <c r="O9" s="9" t="s">
         <v>25</v>
@@ -1214,7 +1218,7 @@
         <v>080</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="11"/>
@@ -1241,7 +1245,7 @@
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F11" s="12"/>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="11"/>
@@ -1266,7 +1270,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="11"/>
@@ -1291,7 +1295,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="11"/>

--- a/tool/3_公式/color.xlsx
+++ b/tool/3_公式/color.xlsx
@@ -13,12 +13,12 @@
     <sheet name="gray" sheetId="11" r:id="rId4"/>
     <sheet name="val" sheetId="12" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
   <si>
     <t>color-R</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,12 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ED243B</t>
-  </si>
-  <si>
-    <t>94ADFF</t>
-  </si>
-  <si>
     <t>ff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,15 +171,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#2E8B57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#00ffff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>#FFFF00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#00E5EE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#003399</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#001018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#CFCFCF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,7 +642,7 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -819,15 +825,15 @@
         <v>27</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I13" si="11">INT(HEX2DEC(LEFT(RIGHT($H4,6),2))/2^3)</f>
+        <f t="shared" ref="I4:I16" si="11">INT(HEX2DEC(LEFT(RIGHT($H4,6),2))/2^3)</f>
         <v>31</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J13" si="12">INT(HEX2DEC(MID(RIGHT($H4,6),3,2))/2^2)</f>
+        <f t="shared" ref="J4:J16" si="12">INT(HEX2DEC(MID(RIGHT($H4,6),3,2))/2^2)</f>
         <v>63</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K13" si="13">INT(HEX2DEC(RIGHT(RIGHT($H4,6),2))/2^3)</f>
+        <f t="shared" ref="K4:K16" si="13">INT(HEX2DEC(RIGHT(RIGHT($H4,6),2))/2^3)</f>
         <v>31</v>
       </c>
       <c r="L4" s="12" t="str">
@@ -1151,7 +1157,7 @@
         <v>E8E0E8</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I9" s="1">
         <f>INT(HEX2DEC(LEFT(RIGHT($H9,6),2))/2^3)</f>
@@ -1195,11 +1201,11 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="B10" s="11">
         <f t="shared" si="6"/>
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="7"/>
@@ -1207,18 +1213,18 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" s="12" t="str">
-        <f t="shared" ref="F10" si="15">DEC2HEX(C10*2^3)&amp;DEC2HEX(D10*2^2)&amp;DEC2HEX(E10*2^3)</f>
-        <v>080</v>
+        <f>DEC2HEX(C10*2^3)&amp;"_"&amp;DEC2HEX(D10*2^2)&amp;"_"&amp;DEC2HEX(E10*2^3)</f>
+        <v>0_10_18</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="11"/>
@@ -1245,7 +1251,7 @@
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F11" s="12"/>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="11"/>
@@ -1270,7 +1276,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="11"/>
@@ -1299,45 +1305,105 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="12"/>
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="L13" s="12" t="str">
-        <f t="shared" ref="L13" si="16">DEC2HEX(I13*2^11+J13*2^5+K13)</f>
-        <v>2C4A</v>
+        <f t="shared" ref="L13" si="15">DEC2HEX(I13*2^11+J13*2^5+K13)</f>
+        <v>73D</v>
       </c>
       <c r="M13" s="11">
         <f t="shared" si="14"/>
-        <v>11338</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="L14" s="12" t="str">
+        <f t="shared" ref="L14:L16" si="16">DEC2HEX(I14*2^11+J14*2^5+K14)</f>
+        <v>193</v>
+      </c>
+      <c r="M14" s="11">
+        <f t="shared" ref="M14:M16" si="17">+I14*2^11+J14*2^5+K14</f>
+        <v>403</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="L15" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>83</v>
+      </c>
+      <c r="M15" s="11">
+        <f t="shared" si="17"/>
+        <v>131</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="12"/>
+        <v>51</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="13"/>
+        <v>25</v>
+      </c>
+      <c r="L16" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>CE79</v>
+      </c>
+      <c r="M16" s="11">
+        <f t="shared" si="17"/>
+        <v>52857</v>
+      </c>
+    </row>
+    <row r="17" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I18" s="1"/>
@@ -1404,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1963,7 +2029,7 @@
         <v>31</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" ref="K10:K15" si="11">DEC2HEX(H10)&amp;DEC2HEX(I10)&amp;DEC2HEX(J10)</f>
+        <f t="shared" ref="K10:K13" si="11">DEC2HEX(H10)&amp;DEC2HEX(I10)&amp;DEC2HEX(J10)</f>
         <v>1F3F1F</v>
       </c>
       <c r="M10" s="2" t="s">
@@ -2098,64 +2164,48 @@
         <v>31</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="11"/>
+        <f>DEC2HEX(H14)&amp;DEC2HEX(I14)&amp;DEC2HEX(J14)</f>
         <v>1B3A1F</v>
       </c>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H15" s="1">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="I15" s="1">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="J15" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="11"/>
-        <v>1D3B1D</v>
+        <f>DEC2HEX(H15)&amp;"_"&amp;DEC2HEX(I15)&amp;"_"&amp;DEC2HEX(J15)</f>
+        <v>6_12_1E</v>
       </c>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H16" s="1">
-        <v>237</v>
-      </c>
-      <c r="I16" s="1">
-        <v>36</v>
-      </c>
-      <c r="J16" s="1">
-        <v>59</v>
-      </c>
-      <c r="K16" t="s">
-        <v>37</v>
-      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H17" s="1">
-        <v>148</v>
-      </c>
-      <c r="I17" s="1">
-        <v>173</v>
-      </c>
-      <c r="J17" s="1">
-        <v>255</v>
-      </c>
-      <c r="K17" t="s">
-        <v>38</v>
-      </c>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I20" s="1"/>
     </row>
   </sheetData>

--- a/tool/3_公式/color.xlsx
+++ b/tool/3_公式/color.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="238" yWindow="106" windowWidth="14810" windowHeight="8019"/>
   </bookViews>
   <sheets>
     <sheet name="RGB16" sheetId="9" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="gray" sheetId="11" r:id="rId4"/>
     <sheet name="val" sheetId="12" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
   <si>
     <t>color-R</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,18 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>X808080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xf8fcf8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X0001c0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>16-&gt;24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,23 +163,77 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>#00E5EE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#003399</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#001018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#CFCFCF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c-R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c-G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c-B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FFFFFF</t>
+  </si>
+  <si>
+    <t>#000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>#FF0000</t>
+  </si>
+  <si>
     <t>#FFFF00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#00E5EE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#003399</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#001018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#CFCFCF</t>
+  </si>
+  <si>
+    <t>黄</t>
+  </si>
+  <si>
+    <t>#00FF00</t>
+  </si>
+  <si>
+    <t>绿</t>
+  </si>
+  <si>
+    <t>#00FFFF</t>
+  </si>
+  <si>
+    <t>青</t>
+  </si>
+  <si>
+    <t>#0000FF</t>
+  </si>
+  <si>
+    <t>蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -199,7 +241,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +284,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -301,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -322,7 +371,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -334,6 +382,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,102 +699,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="5" width="8.6640625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="6.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="4.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="9" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="7.77734375" customWidth="1"/>
-    <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="16" max="18" width="8.6640625" customWidth="1"/>
+    <col min="7" max="8" width="4.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="12" width="6.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.77734375" customWidth="1"/>
+    <col min="15" max="15" width="4" customWidth="1"/>
+    <col min="17" max="19" width="6.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>31</v>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="1"/>
-      <c r="O1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="P1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B2" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="Q2" s="2" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="S2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
         <v>8410</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="12">
         <f>HEX2DEC(A3)</f>
         <v>33808</v>
       </c>
@@ -750,58 +811,61 @@
         <f>(HEX2DEC($A3)-INT(HEX2DEC($A3)/HEX2DEC(800))*HEX2DEC(800)-INT((HEX2DEC($A3)-INT(HEX2DEC($A3)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))*HEX2DEC(20))</f>
         <v>16</v>
       </c>
-      <c r="F3" s="12" t="str">
+      <c r="F3" s="11" t="str">
         <f>DEC2HEX(C3*2^3)&amp;DEC2HEX(D3*2^2)&amp;DEC2HEX(E3*2^3)</f>
         <v>808080</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1">
-        <f>INT(HEX2DEC(LEFT(RIGHT($H3,6),2))/2^3)</f>
-        <v>16</v>
+      <c r="H3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="J3" s="1">
-        <f>INT(HEX2DEC(MID(RIGHT($H3,6),3,2))/2^2)</f>
-        <v>32</v>
+        <f>INT(HEX2DEC(LEFT(RIGHT($I3,6),2))/2^3)</f>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <f>INT(HEX2DEC(RIGHT(RIGHT($H3,6),2))/2^3)</f>
-        <v>16</v>
-      </c>
-      <c r="L3" s="12" t="str">
-        <f t="shared" ref="L3:L12" si="0">DEC2HEX(I3*2^11+J3*2^5+K3)</f>
-        <v>8410</v>
-      </c>
-      <c r="M3" s="11">
-        <f t="shared" ref="M3:M4" si="1">+I3*2^11+J3*2^5+K3</f>
-        <v>33808</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P9" si="2">HEX2DEC(LEFT(RIGHT("000000"&amp;$O3,6),2))</f>
-        <v>31</v>
-      </c>
-      <c r="Q3" s="8">
-        <f t="shared" ref="Q3:Q9" si="3">HEX2DEC(MID(RIGHT("000000"&amp;$O3,6),3,2))</f>
+        <f>INT(HEX2DEC(MID(RIGHT($I3,6),3,2))/2^2)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <f>INT(HEX2DEC(RIGHT(RIGHT($I3,6),2))/2^3)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="11" t="str">
+        <f t="shared" ref="M3:M12" si="0">DEC2HEX(J3*2^11+K3*2^5+L3)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="12">
+        <f t="shared" ref="N3:N4" si="1">+J3*2^11+K3*2^5+L3</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q9" si="2">HEX2DEC(LEFT(RIGHT("000000"&amp;$P3,6),2))</f>
+        <v>31</v>
+      </c>
+      <c r="R3" s="14">
+        <f t="shared" ref="R3:R9" si="3">HEX2DEC(MID(RIGHT("000000"&amp;$P3,6),3,2))</f>
         <v>63</v>
       </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R9" si="4">HEX2DEC(RIGHT(RIGHT("000000"&amp;$O3,6),2))</f>
-        <v>31</v>
-      </c>
-      <c r="S3" s="11" t="str">
-        <f t="shared" ref="S3:S9" si="5">DEC2HEX(P3)&amp;DEC2HEX(Q3)&amp;DEC2HEX(R3)</f>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S9" si="4">HEX2DEC(RIGHT(RIGHT("000000"&amp;$P3,6),2))</f>
+        <v>31</v>
+      </c>
+      <c r="T3" s="10" t="str">
+        <f t="shared" ref="T3:T9" si="5">DEC2HEX(Q3)&amp;DEC2HEX(R3)&amp;DEC2HEX(S3)</f>
         <v>1F3F1F</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="12">
         <f t="shared" ref="B4:B10" si="6">HEX2DEC(A4)</f>
         <v>61440</v>
       </c>
@@ -817,58 +881,61 @@
         <f t="shared" ref="E4:E10" si="9">(HEX2DEC($A4)-INT(HEX2DEC($A4)/HEX2DEC(800))*HEX2DEC(800)-INT((HEX2DEC($A4)-INT(HEX2DEC($A4)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))*HEX2DEC(20))</f>
         <v>0</v>
       </c>
-      <c r="F4" s="12" t="str">
+      <c r="F4" s="11" t="str">
         <f t="shared" ref="F4:F9" si="10">DEC2HEX(C4*2^3)&amp;DEC2HEX(D4*2^2)&amp;DEC2HEX(E4*2^3)</f>
         <v>F000</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" ref="I4:I16" si="11">INT(HEX2DEC(LEFT(RIGHT($H4,6),2))/2^3)</f>
-        <v>31</v>
+      <c r="H4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J16" si="12">INT(HEX2DEC(MID(RIGHT($H4,6),3,2))/2^2)</f>
+        <f t="shared" ref="J4:J16" si="11">INT(HEX2DEC(LEFT(RIGHT($I4,6),2))/2^3)</f>
+        <v>31</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" ref="K4:K16" si="12">INT(HEX2DEC(MID(RIGHT($I4,6),3,2))/2^2)</f>
         <v>63</v>
       </c>
-      <c r="K4" s="1">
-        <f t="shared" ref="K4:K16" si="13">INT(HEX2DEC(RIGHT(RIGHT($H4,6),2))/2^3)</f>
-        <v>31</v>
-      </c>
-      <c r="L4" s="12" t="str">
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L16" si="13">INT(HEX2DEC(RIGHT(RIGHT($I4,6),2))/2^3)</f>
+        <v>31</v>
+      </c>
+      <c r="M4" s="11" t="str">
         <f t="shared" si="0"/>
         <v>FFFF</v>
       </c>
-      <c r="M4" s="11">
+      <c r="N4" s="12">
         <f t="shared" si="1"/>
         <v>65535</v>
       </c>
-      <c r="O4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4">
+      <c r="P4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="1">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="R4" s="14">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="R4">
+      <c r="S4" s="1">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="S4" s="11" t="str">
+      <c r="T4" s="10" t="str">
         <f t="shared" si="5"/>
         <v>1D3B1D</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="12">
         <f t="shared" si="6"/>
         <v>65535</v>
       </c>
@@ -884,58 +951,61 @@
         <f t="shared" si="9"/>
         <v>31</v>
       </c>
-      <c r="F5" s="12" t="str">
+      <c r="F5" s="11" t="str">
         <f t="shared" si="10"/>
         <v>F8FCF8</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="H5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
+        <v>31</v>
+      </c>
+      <c r="K5" s="1">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L5" s="12" t="str">
+      <c r="M5" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="M5" s="11">
-        <f>+I5*2^11+J5*2^5+K5</f>
-        <v>128</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5">
+        <v>F800</v>
+      </c>
+      <c r="N5" s="12">
+        <f>+J5*2^11+K5*2^5+L5</f>
+        <v>63488</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="1">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="R5" s="14">
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
-      <c r="R5">
+      <c r="S5" s="1">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="S5" s="11" t="str">
+      <c r="T5" s="10" t="str">
         <f t="shared" si="5"/>
         <v>FFFFFF</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
         <v>700</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="12">
         <f t="shared" si="6"/>
         <v>1792</v>
       </c>
@@ -951,58 +1021,61 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F6" s="12" t="str">
+      <c r="F6" s="11" t="str">
         <f t="shared" si="10"/>
         <v>0E00</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="H6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
+        <v>31</v>
+      </c>
+      <c r="K6" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
+        <v>63</v>
+      </c>
+      <c r="L6" s="1">
         <f t="shared" si="13"/>
-        <v>24</v>
-      </c>
-      <c r="L6" s="12" t="str">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="M6" s="11">
-        <f t="shared" ref="M6:M13" si="14">+I6*2^11+J6*2^5+K6</f>
-        <v>24</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6">
+        <v>FFE0</v>
+      </c>
+      <c r="N6" s="12">
+        <f t="shared" ref="N6:N13" si="14">+J6*2^11+K6*2^5+L6</f>
+        <v>65504</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="R6" s="14">
         <f t="shared" si="3"/>
         <v>97</v>
       </c>
-      <c r="R6">
+      <c r="S6" s="1">
         <f t="shared" si="4"/>
         <v>233</v>
       </c>
-      <c r="S6" s="11" t="str">
+      <c r="T6" s="10" t="str">
         <f t="shared" si="5"/>
         <v>A61E9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="12">
         <f t="shared" si="6"/>
         <v>224</v>
       </c>
@@ -1018,58 +1091,61 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F7" s="12" t="str">
+      <c r="F7" s="11" t="str">
         <f t="shared" si="10"/>
         <v>01C0</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="H7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" si="11"/>
-        <v>29</v>
-      </c>
-      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
         <f t="shared" si="12"/>
-        <v>56</v>
-      </c>
-      <c r="K7" s="1">
+        <v>63</v>
+      </c>
+      <c r="L7" s="1">
         <f t="shared" si="13"/>
-        <v>29</v>
-      </c>
-      <c r="L7" s="12" t="str">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>EF1D</v>
-      </c>
-      <c r="M7" s="11">
+        <v>7E0</v>
+      </c>
+      <c r="N7" s="12">
         <f t="shared" si="14"/>
-        <v>61213</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7">
+        <v>2016</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="1">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="R7" s="14">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="R7">
+      <c r="S7" s="1">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="S7" s="11" t="str">
+      <c r="T7" s="10" t="str">
         <f t="shared" si="5"/>
         <v>1B3A1F</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
         <v>40</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="12">
         <f>HEX2DEC(A8)</f>
         <v>64</v>
       </c>
@@ -1085,58 +1161,61 @@
         <f>(HEX2DEC($A8)-INT(HEX2DEC($A8)/HEX2DEC(800))*HEX2DEC(800)-INT((HEX2DEC($A8)-INT(HEX2DEC($A8)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))*HEX2DEC(20))</f>
         <v>0</v>
       </c>
-      <c r="F8" s="12" t="str">
+      <c r="F8" s="11" t="str">
         <f t="shared" si="10"/>
         <v>080</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="H8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" si="11"/>
-        <v>31</v>
-      </c>
-      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
         <f t="shared" si="12"/>
         <v>63</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <f t="shared" si="13"/>
         <v>31</v>
       </c>
-      <c r="L8" s="12" t="str">
+      <c r="M8" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>FFFF</v>
-      </c>
-      <c r="M8" s="11">
+        <v>7FF</v>
+      </c>
+      <c r="N8" s="12">
         <f t="shared" si="14"/>
-        <v>65535</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8">
+        <v>2047</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="1">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="R8" s="14">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="R8">
+      <c r="S8" s="1">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="S8" s="11" t="str">
+      <c r="T8" s="10" t="str">
         <f t="shared" si="5"/>
         <v>1D3B1D</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="12">
         <f t="shared" si="6"/>
         <v>61213</v>
       </c>
@@ -1152,58 +1231,61 @@
         <f t="shared" si="9"/>
         <v>29</v>
       </c>
-      <c r="F9" s="12" t="str">
+      <c r="F9" s="11" t="str">
         <f t="shared" si="10"/>
         <v>E8E0E8</v>
       </c>
-      <c r="H9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="1">
-        <f>INT(HEX2DEC(LEFT(RIGHT($H9,6),2))/2^3)</f>
-        <v>31</v>
+      <c r="H9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" t="s">
+        <v>55</v>
       </c>
       <c r="J9" s="1">
-        <f>INT(HEX2DEC(MID(RIGHT($H9,6),3,2))/2^2)</f>
-        <v>63</v>
+        <f>INT(HEX2DEC(LEFT(RIGHT($I9,6),2))/2^3)</f>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f>INT(HEX2DEC(RIGHT(RIGHT($H9,6),2))/2^3)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="12" t="str">
+        <f>INT(HEX2DEC(MID(RIGHT($I9,6),3,2))/2^2)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>INT(HEX2DEC(RIGHT(RIGHT($I9,6),2))/2^3)</f>
+        <v>31</v>
+      </c>
+      <c r="M9" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>FFE0</v>
-      </c>
-      <c r="M9" s="11">
+        <v>1F</v>
+      </c>
+      <c r="N9" s="12">
         <f t="shared" si="14"/>
-        <v>65504</v>
-      </c>
-      <c r="O9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="8">
+      <c r="Q9" s="14">
         <f t="shared" si="2"/>
         <v>216</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="R9" s="14">
         <f t="shared" si="3"/>
         <v>232</v>
       </c>
-      <c r="R9" s="8">
+      <c r="S9" s="14">
         <f t="shared" si="4"/>
         <v>248</v>
       </c>
-      <c r="S9" s="11" t="str">
+      <c r="T9" s="10" t="str">
         <f t="shared" si="5"/>
         <v>D8E8F8</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
         <v>83</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="12">
         <f t="shared" si="6"/>
         <v>131</v>
       </c>
@@ -1219,242 +1301,191 @@
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="F10" s="12" t="str">
+      <c r="F10" s="11" t="str">
         <f>DEC2HEX(C10*2^3)&amp;"_"&amp;DEC2HEX(D10*2^2)&amp;"_"&amp;DEC2HEX(E10*2^3)</f>
         <v>0_10_18</v>
       </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="1">
         <f t="shared" si="11"/>
         <v>31</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <f t="shared" si="13"/>
         <v>31</v>
       </c>
-      <c r="L10" s="12" t="str">
+      <c r="M10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>F81F</v>
       </c>
-      <c r="M10" s="11">
+      <c r="N10" s="12">
         <f t="shared" si="14"/>
         <v>63519</v>
       </c>
-      <c r="O10" s="9"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F11" s="12"/>
-      <c r="H11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="F11" s="11"/>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <f t="shared" si="12"/>
         <v>63</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <f t="shared" si="13"/>
         <v>31</v>
       </c>
-      <c r="L11" s="12" t="str">
+      <c r="M11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>7FF</v>
       </c>
-      <c r="M11" s="11">
+      <c r="N11" s="12">
         <f t="shared" si="14"/>
         <v>2047</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="1">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <f t="shared" si="12"/>
         <v>34</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="L12" s="12" t="str">
+      <c r="M12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>448</v>
       </c>
-      <c r="M12" s="11">
+      <c r="N12" s="12">
         <f t="shared" si="14"/>
         <v>1096</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="1">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <f t="shared" si="12"/>
         <v>57</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <f t="shared" si="13"/>
         <v>29</v>
       </c>
-      <c r="L13" s="12" t="str">
-        <f t="shared" ref="L13" si="15">DEC2HEX(I13*2^11+J13*2^5+K13)</f>
+      <c r="M13" s="11" t="str">
+        <f t="shared" ref="M13" si="15">DEC2HEX(J13*2^11+K13*2^5+L13)</f>
         <v>73D</v>
       </c>
-      <c r="M13" s="11">
+      <c r="N13" s="12">
         <f t="shared" si="14"/>
         <v>1853</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="1">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <f t="shared" si="13"/>
         <v>19</v>
       </c>
-      <c r="L14" s="12" t="str">
-        <f t="shared" ref="L14:L16" si="16">DEC2HEX(I14*2^11+J14*2^5+K14)</f>
+      <c r="M14" s="11" t="str">
+        <f t="shared" ref="M14:M16" si="16">DEC2HEX(J14*2^11+K14*2^5+L14)</f>
         <v>193</v>
       </c>
-      <c r="M14" s="11">
-        <f t="shared" ref="M14:M16" si="17">+I14*2^11+J14*2^5+K14</f>
+      <c r="N14" s="12">
+        <f t="shared" ref="N14:N16" si="17">+J14*2^11+K14*2^5+L14</f>
         <v>403</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="1">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="L15" s="12" t="str">
+      <c r="M15" s="11" t="str">
         <f t="shared" si="16"/>
         <v>83</v>
       </c>
-      <c r="M15" s="11">
+      <c r="N15" s="12">
         <f t="shared" si="17"/>
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="1">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="1">
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <f t="shared" si="12"/>
         <v>51</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <f t="shared" si="13"/>
         <v>25</v>
       </c>
-      <c r="L16" s="12" t="str">
+      <c r="M16" s="11" t="str">
         <f t="shared" si="16"/>
         <v>CE79</v>
       </c>
-      <c r="M16" s="11">
+      <c r="N16" s="12">
         <f t="shared" si="17"/>
         <v>52857</v>
       </c>
     </row>
-    <row r="17" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+    <row r="17" spans="13:21" x14ac:dyDescent="0.15">
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="13:21" x14ac:dyDescent="0.15">
+      <c r="U18" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A1:A24">
@@ -1470,11 +1501,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
@@ -1482,7 +1513,7 @@
     <col min="6" max="8" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
@@ -1520,7 +1551,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>8410</v>
       </c>
@@ -1583,7 +1614,7 @@
         <v>33808</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1646,7 +1677,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1709,7 +1740,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>700</v>
       </c>
@@ -1772,7 +1803,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1835,7 +1866,7 @@
         <v>61213</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>40</v>
       </c>
@@ -1885,7 +1916,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1935,7 +1966,7 @@
         <v>23243</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1995,7 +2026,7 @@
         <v>19641</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2056,7 +2087,7 @@
         <v>34240</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H11" s="2">
         <v>29</v>
       </c>
@@ -2094,7 +2125,7 @@
         <v>51342</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H12" s="2">
         <v>255</v>
       </c>
@@ -2132,7 +2163,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H13" s="2">
         <v>10</v>
       </c>
@@ -2153,7 +2184,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H14" s="1">
         <v>27</v>
       </c>
@@ -2169,7 +2200,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H15" s="1">
         <v>6</v>
       </c>
@@ -2185,27 +2216,27 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:13" x14ac:dyDescent="0.15">
       <c r="I20" s="1"/>
     </row>
   </sheetData>
@@ -2223,7 +2254,7 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2238,9 +2269,9 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2254,7 +2285,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>808080</v>
       </c>
@@ -2276,7 +2307,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -2298,7 +2329,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2322,7 +2353,7 @@
         <v>0x0000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2347,7 +2378,7 @@
         <v>0x0861</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2372,7 +2403,7 @@
         <v>0x18E3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2397,7 +2428,7 @@
         <v>0x2965</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2422,7 +2453,7 @@
         <v>0x39E7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2447,7 +2478,7 @@
         <v>0x4A69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2472,7 +2503,7 @@
         <v>0x5AEB</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2497,7 +2528,7 @@
         <v>0x6B6D</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2522,7 +2553,7 @@
         <v>0x7BEF</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2547,7 +2578,7 @@
         <v>0x8C71</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2572,7 +2603,7 @@
         <v>0x9CF3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2597,7 +2628,7 @@
         <v>0xAD75</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2622,7 +2653,7 @@
         <v>0xBDF7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2647,7 +2678,7 @@
         <v>0xCE79</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2672,7 +2703,7 @@
         <v>0xDEFB</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2697,7 +2728,7 @@
         <v>0xEF7D</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2722,7 +2753,7 @@
         <v>0xFFFF</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>4</v>
       </c>
@@ -2737,7 +2768,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>1</v>
       </c>
@@ -2752,7 +2783,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>2</v>
       </c>
@@ -2782,15 +2813,15 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C4" s="1">
         <f>15*16</f>
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>1</v>
       </c>
@@ -2802,7 +2833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>11</v>
       </c>
@@ -2815,7 +2846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>111</v>
       </c>
@@ -2828,7 +2859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>1111</v>
       </c>
@@ -2841,7 +2872,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>11111</v>
       </c>
@@ -2854,7 +2885,7 @@
         <v>1F</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>111111</v>
       </c>
@@ -2867,7 +2898,7 @@
         <v>3F</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>11000</v>
       </c>
@@ -2879,7 +2910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>11100</v>
       </c>
@@ -2891,7 +2922,7 @@
         <v>1C</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>1000</v>
       </c>
@@ -2903,7 +2934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>100</v>
       </c>

--- a/tool/3_公式/color.xlsx
+++ b/tool/3_公式/color.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="238" yWindow="106" windowWidth="14810" windowHeight="8019"/>
+    <workbookView xWindow="238" yWindow="106" windowWidth="14810" windowHeight="8019" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RGB16" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
   <si>
     <t>color-R</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,14 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#001018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#CFCFCF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>c-R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,6 +226,22 @@
   </si>
   <si>
     <t>红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#333333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#666666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#999999</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -241,7 +249,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,21 +259,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF666666"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -289,6 +282,35 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -350,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -361,16 +383,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -383,17 +399,39 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
@@ -720,82 +758,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N1" s="1"/>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="13"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <v>8410</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <f>HEX2DEC(A3)</f>
         <v>33808</v>
       </c>
@@ -811,15 +849,15 @@
         <f>(HEX2DEC($A3)-INT(HEX2DEC($A3)/HEX2DEC(800))*HEX2DEC(800)-INT((HEX2DEC($A3)-INT(HEX2DEC($A3)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))*HEX2DEC(20))</f>
         <v>16</v>
       </c>
-      <c r="F3" s="11" t="str">
+      <c r="F3" s="9" t="str">
         <f>DEC2HEX(C3*2^3)&amp;DEC2HEX(D3*2^2)&amp;DEC2HEX(E3*2^3)</f>
         <v>808080</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>46</v>
       </c>
       <c r="J3" s="1">
         <f>INT(HEX2DEC(LEFT(RIGHT($I3,6),2))/2^3)</f>
@@ -833,22 +871,22 @@
         <f>INT(HEX2DEC(RIGHT(RIGHT($I3,6),2))/2^3)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="11" t="str">
+      <c r="M3" s="9" t="str">
         <f t="shared" ref="M3:M12" si="0">DEC2HEX(J3*2^11+K3*2^5+L3)</f>
         <v>0</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="10">
         <f t="shared" ref="N3:N4" si="1">+J3*2^11+K3*2^5+L3</f>
         <v>0</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" ref="Q3:Q9" si="2">HEX2DEC(LEFT(RIGHT("000000"&amp;$P3,6),2))</f>
         <v>31</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="12">
         <f t="shared" ref="R3:R9" si="3">HEX2DEC(MID(RIGHT("000000"&amp;$P3,6),3,2))</f>
         <v>63</v>
       </c>
@@ -856,16 +894,16 @@
         <f t="shared" ref="S3:S9" si="4">HEX2DEC(RIGHT(RIGHT("000000"&amp;$P3,6),2))</f>
         <v>31</v>
       </c>
-      <c r="T3" s="10" t="str">
+      <c r="T3" s="8" t="str">
         <f t="shared" ref="T3:T9" si="5">DEC2HEX(Q3)&amp;DEC2HEX(R3)&amp;DEC2HEX(S3)</f>
         <v>1F3F1F</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <f t="shared" ref="B4:B10" si="6">HEX2DEC(A4)</f>
         <v>61440</v>
       </c>
@@ -881,44 +919,44 @@
         <f t="shared" ref="E4:E10" si="9">(HEX2DEC($A4)-INT(HEX2DEC($A4)/HEX2DEC(800))*HEX2DEC(800)-INT((HEX2DEC($A4)-INT(HEX2DEC($A4)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))*HEX2DEC(20))</f>
         <v>0</v>
       </c>
-      <c r="F4" s="11" t="str">
+      <c r="F4" s="9" t="str">
         <f t="shared" ref="F4:F9" si="10">DEC2HEX(C4*2^3)&amp;DEC2HEX(D4*2^2)&amp;DEC2HEX(E4*2^3)</f>
         <v>F000</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="H4" s="10" t="s">
         <v>45</v>
       </c>
+      <c r="I4" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J16" si="11">INT(HEX2DEC(LEFT(RIGHT($I4,6),2))/2^3)</f>
+        <f t="shared" ref="J4:J17" si="11">INT(HEX2DEC(LEFT(RIGHT($I4,6),2))/2^3)</f>
         <v>31</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K16" si="12">INT(HEX2DEC(MID(RIGHT($I4,6),3,2))/2^2)</f>
+        <f t="shared" ref="K4:K17" si="12">INT(HEX2DEC(MID(RIGHT($I4,6),3,2))/2^2)</f>
         <v>63</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" ref="L4:L16" si="13">INT(HEX2DEC(RIGHT(RIGHT($I4,6),2))/2^3)</f>
+        <f t="shared" ref="L4:L17" si="13">INT(HEX2DEC(RIGHT(RIGHT($I4,6),2))/2^3)</f>
         <v>31</v>
       </c>
-      <c r="M4" s="11" t="str">
+      <c r="M4" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FFFF</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="10">
         <f t="shared" si="1"/>
         <v>65535</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="12">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
@@ -926,16 +964,16 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="T4" s="10" t="str">
+      <c r="T4" s="8" t="str">
         <f t="shared" si="5"/>
         <v>1D3B1D</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <f t="shared" si="6"/>
         <v>65535</v>
       </c>
@@ -951,15 +989,15 @@
         <f t="shared" si="9"/>
         <v>31</v>
       </c>
-      <c r="F5" s="11" t="str">
+      <c r="F5" s="9" t="str">
         <f t="shared" si="10"/>
         <v>F8FCF8</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>48</v>
+      <c r="H5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="11"/>
@@ -973,22 +1011,22 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M5" s="11" t="str">
+      <c r="M5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>F800</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="10">
         <f>+J5*2^11+K5*2^5+L5</f>
         <v>63488</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="6" t="s">
         <v>31</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="12">
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
@@ -996,16 +1034,16 @@
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="T5" s="10" t="str">
+      <c r="T5" s="8" t="str">
         <f t="shared" si="5"/>
         <v>FFFFFF</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>700</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <f t="shared" si="6"/>
         <v>1792</v>
       </c>
@@ -1021,15 +1059,15 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F6" s="11" t="str">
+      <c r="F6" s="9" t="str">
         <f t="shared" si="10"/>
         <v>0E00</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>49</v>
+      <c r="H6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="11"/>
@@ -1043,22 +1081,22 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M6" s="11" t="str">
+      <c r="M6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FFE0</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="10">
         <f t="shared" ref="N6:N13" si="14">+J6*2^11+K6*2^5+L6</f>
         <v>65504</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="6" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="12">
         <f t="shared" si="3"/>
         <v>97</v>
       </c>
@@ -1066,16 +1104,16 @@
         <f t="shared" si="4"/>
         <v>233</v>
       </c>
-      <c r="T6" s="10" t="str">
+      <c r="T6" s="8" t="str">
         <f t="shared" si="5"/>
         <v>A61E9</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <f t="shared" si="6"/>
         <v>224</v>
       </c>
@@ -1091,15 +1129,15 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F7" s="11" t="str">
+      <c r="F7" s="9" t="str">
         <f t="shared" si="10"/>
         <v>01C0</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>51</v>
+      <c r="H7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="11"/>
@@ -1113,22 +1151,22 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M7" s="11" t="str">
+      <c r="M7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>7E0</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="10">
         <f t="shared" si="14"/>
         <v>2016</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="P7" s="6" t="s">
         <v>33</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="12">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
@@ -1136,16 +1174,16 @@
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="T7" s="10" t="str">
+      <c r="T7" s="8" t="str">
         <f t="shared" si="5"/>
         <v>1B3A1F</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>40</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <f>HEX2DEC(A8)</f>
         <v>64</v>
       </c>
@@ -1161,15 +1199,15 @@
         <f>(HEX2DEC($A8)-INT(HEX2DEC($A8)/HEX2DEC(800))*HEX2DEC(800)-INT((HEX2DEC($A8)-INT(HEX2DEC($A8)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))*HEX2DEC(20))</f>
         <v>0</v>
       </c>
-      <c r="F8" s="11" t="str">
+      <c r="F8" s="9" t="str">
         <f t="shared" si="10"/>
         <v>080</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>53</v>
+      <c r="H8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="11"/>
@@ -1183,22 +1221,22 @@
         <f t="shared" si="13"/>
         <v>31</v>
       </c>
-      <c r="M8" s="11" t="str">
+      <c r="M8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>7FF</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="10">
         <f t="shared" si="14"/>
         <v>2047</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="P8" s="6" t="s">
         <v>30</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8" s="12">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
@@ -1206,16 +1244,16 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="T8" s="10" t="str">
+      <c r="T8" s="8" t="str">
         <f t="shared" si="5"/>
         <v>1D3B1D</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <f t="shared" si="6"/>
         <v>61213</v>
       </c>
@@ -1231,15 +1269,15 @@
         <f t="shared" si="9"/>
         <v>29</v>
       </c>
-      <c r="F9" s="11" t="str">
+      <c r="F9" s="9" t="str">
         <f t="shared" si="10"/>
         <v>E8E0E8</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>56</v>
+      <c r="H9" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J9" s="1">
         <f>INT(HEX2DEC(LEFT(RIGHT($I9,6),2))/2^3)</f>
@@ -1253,39 +1291,39 @@
         <f>INT(HEX2DEC(RIGHT(RIGHT($I9,6),2))/2^3)</f>
         <v>31</v>
       </c>
-      <c r="M9" s="11" t="str">
+      <c r="M9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>1F</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="10">
         <f t="shared" si="14"/>
         <v>31</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="P9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="12">
         <f t="shared" si="2"/>
         <v>216</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="12">
         <f t="shared" si="3"/>
         <v>232</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S9" s="12">
         <f t="shared" si="4"/>
         <v>248</v>
       </c>
-      <c r="T9" s="10" t="str">
+      <c r="T9" s="8" t="str">
         <f t="shared" si="5"/>
         <v>D8E8F8</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>83</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <f t="shared" si="6"/>
         <v>131</v>
       </c>
@@ -1301,7 +1339,7 @@
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="F10" s="11" t="str">
+      <c r="F10" s="9" t="str">
         <f>DEC2HEX(C10*2^3)&amp;"_"&amp;DEC2HEX(D10*2^2)&amp;"_"&amp;DEC2HEX(E10*2^3)</f>
         <v>0_10_18</v>
       </c>
@@ -1320,18 +1358,18 @@
         <f t="shared" si="13"/>
         <v>31</v>
       </c>
-      <c r="M10" s="11" t="str">
+      <c r="M10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>F81F</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="10">
         <f t="shared" si="14"/>
         <v>63519</v>
       </c>
-      <c r="P10" s="8"/>
+      <c r="P10" s="6"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="F11" s="11"/>
+      <c r="F11" s="9"/>
       <c r="I11" t="s">
         <v>36</v>
       </c>
@@ -1347,11 +1385,11 @@
         <f t="shared" si="13"/>
         <v>31</v>
       </c>
-      <c r="M11" s="11" t="str">
+      <c r="M11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>7FF</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="10">
         <f t="shared" si="14"/>
         <v>2047</v>
       </c>
@@ -1372,11 +1410,11 @@
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="M12" s="11" t="str">
+      <c r="M12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>448</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="10">
         <f t="shared" si="14"/>
         <v>1096</v>
       </c>
@@ -1397,22 +1435,22 @@
         <f t="shared" si="13"/>
         <v>29</v>
       </c>
-      <c r="M13" s="11" t="str">
+      <c r="M13" s="9" t="str">
         <f t="shared" ref="M13" si="15">DEC2HEX(J13*2^11+K13*2^5+L13)</f>
         <v>73D</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="10">
         <f t="shared" si="14"/>
         <v>1853</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="I14" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="12"/>
@@ -1420,71 +1458,89 @@
       </c>
       <c r="L14" s="1">
         <f t="shared" si="13"/>
-        <v>19</v>
-      </c>
-      <c r="M14" s="11" t="str">
-        <f t="shared" ref="M14:M16" si="16">DEC2HEX(J14*2^11+K14*2^5+L14)</f>
-        <v>193</v>
-      </c>
-      <c r="N14" s="12">
-        <f t="shared" ref="N14:N16" si="17">+J14*2^11+K14*2^5+L14</f>
-        <v>403</v>
+        <v>6</v>
+      </c>
+      <c r="M14" s="9" t="str">
+        <f>DEC2HEX(J14*2^11+K14*2^5+L14)</f>
+        <v>3186</v>
+      </c>
+      <c r="N14" s="10">
+        <f>+J14*2^11+K14*2^5+L14</f>
+        <v>12678</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="I15" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="M15" s="11" t="str">
-        <f t="shared" si="16"/>
-        <v>83</v>
-      </c>
-      <c r="N15" s="12">
-        <f t="shared" si="17"/>
-        <v>131</v>
+        <v>12</v>
+      </c>
+      <c r="M15" s="9" t="str">
+        <f t="shared" ref="M15:M17" si="16">DEC2HEX(J15*2^11+K15*2^5+L15)</f>
+        <v>632C</v>
+      </c>
+      <c r="N15" s="10">
+        <f>+J15*2^11+K15*2^5+L15</f>
+        <v>25388</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="I16" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="12"/>
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="13"/>
-        <v>25</v>
-      </c>
-      <c r="M16" s="11" t="str">
+        <v>19</v>
+      </c>
+      <c r="M16" s="9" t="str">
         <f t="shared" si="16"/>
-        <v>CE79</v>
-      </c>
-      <c r="N16" s="12">
-        <f t="shared" si="17"/>
-        <v>52857</v>
-      </c>
-    </row>
-    <row r="17" spans="13:21" x14ac:dyDescent="0.15">
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="13:21" x14ac:dyDescent="0.15">
+        <v>9CD3</v>
+      </c>
+      <c r="N16" s="10">
+        <f>+'RGB24'!N14*2^11+'RGB24'!O14*2^5+'RGB24'!P14</f>
+        <v>53895</v>
+      </c>
+    </row>
+    <row r="17" spans="9:21" x14ac:dyDescent="0.15">
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="M17" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="9:21" x14ac:dyDescent="0.15">
       <c r="U18" s="1"/>
     </row>
   </sheetData>
@@ -1499,745 +1555,1063 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.9" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="5" width="12.77734375" style="1" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" style="14" customWidth="1"/>
+    <col min="3" max="5" width="8.33203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="14"/>
+    <col min="7" max="7" width="4.6640625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="14"/>
+    <col min="9" max="11" width="8.88671875" style="16"/>
+    <col min="12" max="12" width="4.5546875" style="16" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="M1" s="14"/>
+      <c r="N1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+      <c r="A2" s="15">
         <v>8410</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="14">
         <f>HEX2DEC(A2)</f>
         <v>33808</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="14">
         <f>INT(HEX2DEC($A2)/HEX2DEC(800))</f>
         <v>16</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="14">
         <f>INT((HEX2DEC($A2)-INT(HEX2DEC($A2)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))</f>
         <v>32</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="14">
         <f>(HEX2DEC($A2)-INT(HEX2DEC($A2)/HEX2DEC(800))*HEX2DEC(800)-INT((HEX2DEC($A2)-INT(HEX2DEC($A2)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))*HEX2DEC(20))</f>
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="14" t="str">
         <f>DEC2HEX(C2*2^3)&amp;DEC2HEX(D2*2^2)&amp;DEC2HEX(E2*2^3)</f>
         <v>808080</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="15">
         <v>101010</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="14">
         <f>INT(HEX2DEC(LEFT($H2,2))/2^3)</f>
         <v>2</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="14">
         <f>INT(HEX2DEC(MID($H2,3,2))/2^2)</f>
         <v>4</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="14">
         <f>INT(HEX2DEC(RIGHT($H2,2))/2^3)</f>
         <v>2</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="15">
         <v>808080</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="14">
         <f t="shared" ref="N2:N11" si="0">INT(HEX2DEC(LEFT(RIGHT("000000"&amp;$M2,6),2))/2^3)</f>
         <v>16</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="14">
         <f t="shared" ref="O2:O11" si="1">INT(HEX2DEC(MID(RIGHT("000000"&amp;$M2,6),3,2))/2^2)</f>
         <v>32</v>
       </c>
-      <c r="P2" s="1">
-        <f t="shared" ref="P2:P12" si="2">INT(HEX2DEC(RIGHT($M2,2))/2^3)</f>
+      <c r="P2" s="14">
+        <f t="shared" ref="P2:P13" si="2">INT(HEX2DEC(RIGHT($M2,2))/2^3)</f>
         <v>16</v>
       </c>
-      <c r="Q2" s="1" t="str">
+      <c r="Q2" s="14" t="str">
         <f>DEC2HEX(N2*2^11+O2*2^5+P2)</f>
         <v>8410</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="14">
         <f t="shared" ref="R2:R4" si="3">+N2*2^11+O2*2^5+P2</f>
         <v>33808</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="14">
         <f t="shared" ref="B3:B10" si="4">HEX2DEC(A3)</f>
         <v>61440</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="14">
         <f t="shared" ref="C3:C10" si="5">INT(HEX2DEC($A3)/HEX2DEC(800))</f>
         <v>30</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="14">
         <f t="shared" ref="D3:D10" si="6">INT((HEX2DEC($A3)-INT(HEX2DEC($A3)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))</f>
         <v>0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="14">
         <f t="shared" ref="E3:E10" si="7">(HEX2DEC($A3)-INT(HEX2DEC($A3)/HEX2DEC(800))*HEX2DEC(800)-INT((HEX2DEC($A3)-INT(HEX2DEC($A3)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))*HEX2DEC(20))</f>
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="14" t="str">
         <f t="shared" ref="F3:F10" si="8">DEC2HEX(C3*2^3)&amp;DEC2HEX(D3*2^2)&amp;DEC2HEX(E3*2^3)</f>
         <v>F000</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="15">
         <v>100110</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="14">
         <f>INT(HEX2DEC(LEFT($H3,2))/2^3)</f>
         <v>2</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="14">
         <f>INT(HEX2DEC(MID($H3,3,2))/2^2)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="14">
         <f>INT(HEX2DEC(RIGHT($H3,2))/2^3)</f>
         <v>2</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="14">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="14">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="14">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="Q3" s="1" t="str">
+      <c r="Q3" s="14" t="str">
         <f t="shared" ref="Q3:Q12" si="9">DEC2HEX(N3*2^11+O3*2^5+P3)</f>
         <v>FFFF</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="14">
         <f t="shared" si="3"/>
         <v>65535</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="14">
         <f t="shared" si="4"/>
         <v>65535</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="14">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="14">
         <f t="shared" si="6"/>
         <v>63</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="14">
         <f t="shared" si="7"/>
         <v>31</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="14" t="str">
         <f t="shared" si="8"/>
         <v>F8FCF8</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="14">
         <f>INT(HEX2DEC(LEFT($H4,2))/2^3)</f>
         <v>31</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="14">
         <f>INT(HEX2DEC(MID($H4,3,2))/2^2)</f>
         <v>63</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="14">
         <f>INT(HEX2DEC(RIGHT($H4,2))/2^3)</f>
         <v>31</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="P4" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1" t="str">
+      <c r="P4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="14" t="str">
         <f t="shared" si="9"/>
         <v>80</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="14">
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+    <row r="5" spans="1:18" ht="12.55" x14ac:dyDescent="0.15">
+      <c r="A5" s="15">
         <v>700</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="14">
         <f t="shared" si="4"/>
         <v>1792</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="14">
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="14" t="str">
         <f t="shared" si="8"/>
         <v>0E00</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="14">
         <f>INT(HEX2DEC(LEFT($H5,2))/2^3)</f>
         <v>29</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="14">
         <f>INT(HEX2DEC(MID($H5,3,2))/2^2)</f>
         <v>59</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="14">
         <f>INT(HEX2DEC(RIGHT($H5,2))/2^3)</f>
         <v>29</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="14">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="Q5" s="1" t="str">
+      <c r="Q5" s="14" t="str">
         <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="14">
         <f>+N5*2^11+O5*2^5+P5</f>
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:18" ht="12.55" x14ac:dyDescent="0.15">
+      <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="14">
         <f t="shared" si="4"/>
         <v>224</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="14">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="14" t="str">
         <f t="shared" si="8"/>
         <v>01C0</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="14">
         <f>INT(HEX2DEC(LEFT($H6,2))/2^3)</f>
         <v>27</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="14">
         <f>INT(HEX2DEC(MID($H6,3,2))/2^2)</f>
         <v>58</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="14">
         <f>INT(HEX2DEC(RIGHT($H6,2))/2^3)</f>
         <v>31</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="14">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="14">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="14">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="Q6" s="1" t="str">
+      <c r="Q6" s="14" t="str">
         <f t="shared" si="9"/>
         <v>EF1D</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="14">
         <f t="shared" ref="R6:R12" si="10">+N6*2^11+O6*2^5+P6</f>
         <v>61213</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
+    <row r="7" spans="1:18" ht="12.55" x14ac:dyDescent="0.15">
+      <c r="A7" s="15">
         <v>40</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="14">
         <f>HEX2DEC(A7)</f>
         <v>64</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="14">
         <f>INT(HEX2DEC($A7)/HEX2DEC(800))</f>
         <v>0</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="14">
         <f>INT((HEX2DEC($A7)-INT(HEX2DEC($A7)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))</f>
         <v>2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="14">
         <f>(HEX2DEC($A7)-INT(HEX2DEC($A7)/HEX2DEC(800))*HEX2DEC(800)-INT((HEX2DEC($A7)-INT(HEX2DEC($A7)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))*HEX2DEC(20))</f>
         <v>0</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="14" t="str">
         <f t="shared" si="8"/>
         <v>080</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="M7" s="5" t="s">
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="M7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="14">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="14">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="14">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="Q7" s="1" t="str">
+      <c r="Q7" s="14" t="str">
         <f t="shared" si="9"/>
         <v>FFFF</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="14">
         <f t="shared" si="10"/>
         <v>65535</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:18" ht="12.55" x14ac:dyDescent="0.15">
+      <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="14">
         <f t="shared" si="4"/>
         <v>61213</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="14">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="14">
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="14">
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="F8" s="14" t="str">
         <f t="shared" si="8"/>
         <v>E8E0E8</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="M8" s="5">
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="M8" s="18">
         <v>585858</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="14">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="14">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="Q8" s="1" t="str">
+      <c r="Q8" s="14" t="str">
         <f t="shared" si="9"/>
         <v>5ACB</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="14">
         <f t="shared" si="10"/>
         <v>23243</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:18" ht="12.55" x14ac:dyDescent="0.15">
+      <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="14">
         <f t="shared" si="4"/>
         <v>23243</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="14">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="14">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="14">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="F9" s="1" t="str">
+      <c r="F9" s="14" t="str">
         <f t="shared" si="8"/>
         <v>585858</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="H9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="14">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="14">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="Q9" s="1" t="str">
+      <c r="Q9" s="14" t="str">
         <f t="shared" si="9"/>
         <v>4CB9</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="19">
         <f t="shared" si="10"/>
         <v>19641</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="14">
         <f t="shared" si="4"/>
         <v>2845</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="14">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="14">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="14">
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
-      <c r="F10" s="1" t="str">
+      <c r="F10" s="14" t="str">
         <f t="shared" si="8"/>
         <v>860E8</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="15">
         <v>31</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="15">
         <v>63</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="15">
         <v>31</v>
       </c>
-      <c r="K10" t="str">
+      <c r="K10" s="16" t="str">
         <f t="shared" ref="K10:K13" si="11">DEC2HEX(H10)&amp;DEC2HEX(I10)&amp;DEC2HEX(J10)</f>
         <v>1F3F1F</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="14">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="P10" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1" t="str">
+      <c r="P10" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="14" t="str">
         <f t="shared" si="9"/>
         <v>85C0</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="19">
         <f t="shared" si="10"/>
         <v>34240</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="H11" s="2">
+    <row r="11" spans="1:18" ht="12.55" x14ac:dyDescent="0.15">
+      <c r="H11" s="15">
         <v>29</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="15">
         <v>59</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="15">
         <v>29</v>
       </c>
-      <c r="K11" t="str">
+      <c r="K11" s="16" t="str">
         <f t="shared" si="11"/>
         <v>1D3B1D</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="14">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="14">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="Q11" s="1" t="str">
+      <c r="Q11" s="14" t="str">
         <f t="shared" si="9"/>
         <v>C88E</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="19">
         <f t="shared" si="10"/>
         <v>51342</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="H12" s="2">
+      <c r="H12" s="15">
         <v>255</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="15">
         <v>255</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="15">
         <v>255</v>
       </c>
-      <c r="K12" t="str">
+      <c r="K12" s="16" t="str">
         <f t="shared" si="11"/>
         <v>FFFFFF</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="14">
         <f>INT(HEX2DEC(LEFT(RIGHT("000000"&amp;$M12,6),2))/2^3)</f>
         <v>1</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="14">
         <f>INT(HEX2DEC(MID(RIGHT("000000"&amp;$M12,6),3,2))/2^2)</f>
         <v>24</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="14">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="Q12" s="1" t="str">
+      <c r="Q12" s="14" t="str">
         <f t="shared" si="9"/>
         <v>B1D</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="19">
         <f t="shared" si="10"/>
         <v>2845</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="H13" s="2">
+      <c r="H13" s="15">
         <v>10</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="15">
         <v>97</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="15">
         <v>233</v>
       </c>
-      <c r="K13" t="str">
+      <c r="K13" s="16" t="str">
         <f t="shared" si="11"/>
         <v>A61E9</v>
       </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="4"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="14">
+        <f t="shared" ref="N13" si="12">INT(HEX2DEC(LEFT(RIGHT("000000"&amp;$M13,6),2))/2^3)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="14">
+        <f t="shared" ref="O13" si="13">INT(HEX2DEC(MID(RIGHT("000000"&amp;$M13,6),3,2))/2^2)</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="14" t="str">
+        <f t="shared" ref="Q13" si="14">DEC2HEX(N13*2^11+O13*2^5+P13)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="19"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="H14" s="1">
+      <c r="G14" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="14">
+        <v>210</v>
+      </c>
+      <c r="I14" s="14">
+        <v>81</v>
+      </c>
+      <c r="J14" s="14">
+        <v>58</v>
+      </c>
+      <c r="K14" s="16" t="str">
+        <f>DEC2HEX(H14)&amp;DEC2HEX(I14)&amp;DEC2HEX(J14)</f>
+        <v>D2513A</v>
+      </c>
+      <c r="L14" s="14"/>
+      <c r="M14" s="16" t="str">
+        <f>"#"&amp;RIGHT("000000"&amp;K14,6)</f>
+        <v>#D2513A</v>
+      </c>
+      <c r="N14" s="14">
+        <f>INT(HEX2DEC(LEFT(RIGHT($M14,6),2))/2^3)</f>
+        <v>26</v>
+      </c>
+      <c r="O14" s="14">
+        <f>INT(HEX2DEC(MID(RIGHT($M14,6),3,2))/2^2)</f>
+        <v>20</v>
+      </c>
+      <c r="P14" s="14">
+        <f>INT(HEX2DEC(RIGHT(RIGHT($M14,6),2))/2^3)</f>
+        <v>7</v>
+      </c>
+      <c r="Q14" s="21" t="str">
+        <f>DEC2HEX(N14*2^11+O14*2^5+P14)</f>
+        <v>D287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="H15" s="14">
+        <v>86</v>
+      </c>
+      <c r="I15" s="14">
+        <v>138</v>
+      </c>
+      <c r="J15" s="14">
+        <v>214</v>
+      </c>
+      <c r="K15" s="16" t="str">
+        <f t="shared" ref="K15:K21" si="15">DEC2HEX(H15)&amp;DEC2HEX(I15)&amp;DEC2HEX(J15)</f>
+        <v>568AD6</v>
+      </c>
+      <c r="L15" s="14"/>
+      <c r="M15" s="16" t="str">
+        <f t="shared" ref="M15:M21" si="16">"#"&amp;RIGHT("000000"&amp;K15,6)</f>
+        <v>#568AD6</v>
+      </c>
+      <c r="N15" s="14">
+        <f t="shared" ref="N15:N21" si="17">INT(HEX2DEC(LEFT(RIGHT($M15,6),2))/2^3)</f>
+        <v>10</v>
+      </c>
+      <c r="O15" s="14">
+        <f t="shared" ref="O15:O21" si="18">INT(HEX2DEC(MID(RIGHT($M15,6),3,2))/2^2)</f>
+        <v>34</v>
+      </c>
+      <c r="P15" s="14">
+        <f t="shared" ref="P15:P21" si="19">INT(HEX2DEC(RIGHT(RIGHT($M15,6),2))/2^3)</f>
+        <v>26</v>
+      </c>
+      <c r="Q15" s="21" t="str">
+        <f t="shared" ref="Q15:Q21" si="20">DEC2HEX(N15*2^11+O15*2^5+P15)</f>
+        <v>545A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="H16" s="14">
+        <v>126</v>
+      </c>
+      <c r="I16" s="14">
+        <v>70</v>
+      </c>
+      <c r="J16" s="14">
+        <v>219</v>
+      </c>
+      <c r="K16" s="16" t="str">
+        <f t="shared" si="15"/>
+        <v>7E46DB</v>
+      </c>
+      <c r="L16" s="14"/>
+      <c r="M16" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>#7E46DB</v>
+      </c>
+      <c r="N16" s="14">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="O16" s="14">
+        <f t="shared" si="18"/>
+        <v>17</v>
+      </c>
+      <c r="P16" s="14">
+        <f t="shared" si="19"/>
         <v>27</v>
       </c>
-      <c r="I14" s="1">
-        <v>58</v>
-      </c>
-      <c r="J14" s="1">
-        <v>31</v>
-      </c>
-      <c r="K14" t="str">
-        <f>DEC2HEX(H14)&amp;DEC2HEX(I14)&amp;DEC2HEX(J14)</f>
-        <v>1B3A1F</v>
-      </c>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="H15" s="1">
+      <c r="Q16" s="21" t="str">
+        <f t="shared" si="20"/>
+        <v>7A3B</v>
+      </c>
+    </row>
+    <row r="17" spans="8:19" x14ac:dyDescent="0.15">
+      <c r="H17" s="14">
+        <v>124</v>
+      </c>
+      <c r="I17" s="14">
+        <v>183</v>
+      </c>
+      <c r="J17" s="14">
+        <v>91</v>
+      </c>
+      <c r="K17" s="16" t="str">
+        <f t="shared" si="15"/>
+        <v>7CB75B</v>
+      </c>
+      <c r="L17" s="14"/>
+      <c r="M17" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>#7CB75B</v>
+      </c>
+      <c r="N17" s="14">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="O17" s="14">
+        <f t="shared" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="P17" s="14">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="Q17" s="21" t="str">
+        <f t="shared" si="20"/>
+        <v>7DAB</v>
+      </c>
+    </row>
+    <row r="18" spans="8:19" x14ac:dyDescent="0.15">
+      <c r="H18" s="14">
+        <v>76</v>
+      </c>
+      <c r="I18" s="14">
+        <v>106</v>
+      </c>
+      <c r="J18" s="14">
+        <v>36</v>
+      </c>
+      <c r="K18" s="16" t="str">
+        <f t="shared" si="15"/>
+        <v>4C6A24</v>
+      </c>
+      <c r="L18" s="14"/>
+      <c r="M18" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>#4C6A24</v>
+      </c>
+      <c r="N18" s="14">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="O18" s="14">
+        <f t="shared" si="18"/>
+        <v>26</v>
+      </c>
+      <c r="P18" s="14">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="Q18" s="21" t="str">
+        <f t="shared" si="20"/>
+        <v>4B44</v>
+      </c>
+    </row>
+    <row r="19" spans="8:19" x14ac:dyDescent="0.15">
+      <c r="H19" s="14">
+        <v>175</v>
+      </c>
+      <c r="I19" s="14">
+        <v>68</v>
+      </c>
+      <c r="J19" s="14">
+        <v>48</v>
+      </c>
+      <c r="K19" s="16" t="str">
+        <f t="shared" si="15"/>
+        <v>AF4430</v>
+      </c>
+      <c r="L19" s="14"/>
+      <c r="M19" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>#AF4430</v>
+      </c>
+      <c r="N19" s="14">
+        <f t="shared" si="17"/>
+        <v>21</v>
+      </c>
+      <c r="O19" s="14">
+        <f t="shared" si="18"/>
+        <v>17</v>
+      </c>
+      <c r="P19" s="14">
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="I15" s="1">
-        <v>18</v>
-      </c>
-      <c r="J15" s="1">
-        <v>30</v>
-      </c>
-      <c r="K15" t="str">
-        <f>DEC2HEX(H15)&amp;"_"&amp;DEC2HEX(I15)&amp;"_"&amp;DEC2HEX(J15)</f>
-        <v>6_12_1E</v>
-      </c>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="9:13" x14ac:dyDescent="0.15">
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="9:13" x14ac:dyDescent="0.15">
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="9:13" x14ac:dyDescent="0.15">
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.15">
-      <c r="I20" s="1"/>
+      <c r="Q19" s="21" t="str">
+        <f t="shared" si="20"/>
+        <v>AA26</v>
+      </c>
+    </row>
+    <row r="20" spans="8:19" x14ac:dyDescent="0.15">
+      <c r="H20" s="14">
+        <v>215</v>
+      </c>
+      <c r="I20" s="14">
+        <v>160</v>
+      </c>
+      <c r="J20" s="14">
+        <v>70</v>
+      </c>
+      <c r="K20" s="16" t="str">
+        <f t="shared" si="15"/>
+        <v>D7A046</v>
+      </c>
+      <c r="L20" s="14"/>
+      <c r="M20" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>#D7A046</v>
+      </c>
+      <c r="N20" s="14">
+        <f t="shared" si="17"/>
+        <v>26</v>
+      </c>
+      <c r="O20" s="14">
+        <f t="shared" si="18"/>
+        <v>40</v>
+      </c>
+      <c r="P20" s="14">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="Q20" s="21" t="str">
+        <f t="shared" si="20"/>
+        <v>D508</v>
+      </c>
+    </row>
+    <row r="21" spans="8:19" x14ac:dyDescent="0.15">
+      <c r="H21" s="14">
+        <v>90</v>
+      </c>
+      <c r="I21" s="14">
+        <v>90</v>
+      </c>
+      <c r="J21" s="14">
+        <v>90</v>
+      </c>
+      <c r="K21" s="16" t="str">
+        <f t="shared" si="15"/>
+        <v>5A5A5A</v>
+      </c>
+      <c r="L21" s="14"/>
+      <c r="M21" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>#5A5A5A</v>
+      </c>
+      <c r="N21" s="14">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="O21" s="14">
+        <f t="shared" si="18"/>
+        <v>22</v>
+      </c>
+      <c r="P21" s="14">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="Q21" s="21" t="str">
+        <f t="shared" si="20"/>
+        <v>5ACB</v>
+      </c>
+    </row>
+    <row r="22" spans="8:19" x14ac:dyDescent="0.15">
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+    </row>
+    <row r="23" spans="8:19" x14ac:dyDescent="0.15">
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+    </row>
+    <row r="24" spans="8:19" x14ac:dyDescent="0.15">
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+    </row>
+    <row r="25" spans="8:19" x14ac:dyDescent="0.15">
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+    </row>
+    <row r="26" spans="8:19" x14ac:dyDescent="0.15">
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2263,15 +2637,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2285,7 +2659,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>808080</v>
       </c>
@@ -2307,7 +2681,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -2329,7 +2703,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2353,7 +2727,7 @@
         <v>0x0000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2377,8 +2751,11 @@
         <f t="shared" ref="F5:F20" si="3">"0x"&amp;RIGHT("0000"&amp;E5,4)</f>
         <v>0x0861</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2402,8 +2779,11 @@
         <f t="shared" si="3"/>
         <v>0x18E3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2427,8 +2807,11 @@
         <f t="shared" si="3"/>
         <v>0x2965</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2452,8 +2835,11 @@
         <f t="shared" si="3"/>
         <v>0x39E7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G8" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2477,8 +2863,11 @@
         <f t="shared" si="3"/>
         <v>0x4A69</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2502,8 +2891,11 @@
         <f t="shared" si="3"/>
         <v>0x5AEB</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G10" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2527,8 +2919,11 @@
         <f t="shared" si="3"/>
         <v>0x6B6D</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G11" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2552,8 +2947,11 @@
         <f t="shared" si="3"/>
         <v>0x7BEF</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G12" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2577,8 +2975,11 @@
         <f t="shared" si="3"/>
         <v>0x8C71</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G13" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2602,8 +3003,11 @@
         <f t="shared" si="3"/>
         <v>0x9CF3</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G14" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2627,8 +3031,11 @@
         <f t="shared" si="3"/>
         <v>0xAD75</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G15" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2652,8 +3059,11 @@
         <f t="shared" si="3"/>
         <v>0xBDF7</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G16" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2677,8 +3087,11 @@
         <f t="shared" si="3"/>
         <v>0xCE79</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G17" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2702,8 +3115,11 @@
         <f t="shared" si="3"/>
         <v>0xDEFB</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G18" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2727,8 +3143,11 @@
         <f t="shared" si="3"/>
         <v>0xEF7D</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G19" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2752,8 +3171,11 @@
         <f t="shared" si="3"/>
         <v>0xFFFF</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G20" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>4</v>
       </c>
@@ -2768,7 +3190,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>1</v>
       </c>
@@ -2783,7 +3205,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>2</v>
       </c>

--- a/tool/3_公式/color.xlsx
+++ b/tool/3_公式/color.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="238" yWindow="106" windowWidth="14810" windowHeight="8019" activeTab="3"/>
+    <workbookView xWindow="238" yWindow="106" windowWidth="14810" windowHeight="8019" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RGB16" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
   <si>
     <t>color-R</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,6 +242,26 @@
   </si>
   <si>
     <t>#999999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>==&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xffff 转 #ffffff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ffffff 转 0xffff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ffffff 转 0xffff 转 #ffffff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB 转 #ffffff 转 0xffff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -316,7 +336,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,6 +379,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -372,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -433,6 +459,17 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -737,10 +774,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
@@ -757,317 +795,273 @@
     <col min="17" max="19" width="6.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:20" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="23"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" s="23"/>
+      <c r="T1" s="24"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="P1" s="5" t="s">
+      <c r="N2" s="1"/>
+      <c r="P2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B2" s="11" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="1" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A3" s="6">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
         <v>8410</v>
       </c>
-      <c r="B3" s="10">
-        <f>HEX2DEC(A3)</f>
+      <c r="B4" s="10">
+        <f>HEX2DEC(A4)</f>
         <v>33808</v>
       </c>
-      <c r="C3" s="1">
-        <f>INT(HEX2DEC($A3)/HEX2DEC(800))</f>
+      <c r="C4" s="1">
+        <f>INT(HEX2DEC($A4)/HEX2DEC(800))</f>
         <v>16</v>
       </c>
-      <c r="D3" s="1">
-        <f>INT((HEX2DEC($A3)-INT(HEX2DEC($A3)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))</f>
+      <c r="D4" s="1">
+        <f>INT((HEX2DEC($A4)-INT(HEX2DEC($A4)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))</f>
         <v>32</v>
       </c>
-      <c r="E3" s="1">
-        <f>(HEX2DEC($A3)-INT(HEX2DEC($A3)/HEX2DEC(800))*HEX2DEC(800)-INT((HEX2DEC($A3)-INT(HEX2DEC($A3)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))*HEX2DEC(20))</f>
+      <c r="E4" s="1">
+        <f>(HEX2DEC($A4)-INT(HEX2DEC($A4)/HEX2DEC(800))*HEX2DEC(800)-INT((HEX2DEC($A4)-INT(HEX2DEC($A4)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))*HEX2DEC(20))</f>
         <v>16</v>
       </c>
-      <c r="F3" s="9" t="str">
-        <f>DEC2HEX(C3*2^3)&amp;DEC2HEX(D3*2^2)&amp;DEC2HEX(E3*2^3)</f>
+      <c r="F4" s="9" t="str">
+        <f>DEC2HEX(C4*2^3)&amp;DEC2HEX(D4*2^2)&amp;DEC2HEX(E4*2^3)</f>
         <v>808080</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="1">
-        <f>INT(HEX2DEC(LEFT(RIGHT($I3,6),2))/2^3)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <f>INT(HEX2DEC(MID(RIGHT($I3,6),3,2))/2^2)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <f>INT(HEX2DEC(RIGHT(RIGHT($I3,6),2))/2^3)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="9" t="str">
-        <f t="shared" ref="M3:M12" si="0">DEC2HEX(J3*2^11+K3*2^5+L3)</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="10">
-        <f t="shared" ref="N3:N4" si="1">+J3*2^11+K3*2^5+L3</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="6" t="s">
+      <c r="J4" s="1">
+        <f>INT(HEX2DEC(LEFT(RIGHT($I4,6),2))/2^3)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <f>INT(HEX2DEC(MID(RIGHT($I4,6),3,2))/2^2)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f>INT(HEX2DEC(RIGHT(RIGHT($I4,6),2))/2^3)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="9" t="str">
+        <f t="shared" ref="M4:M13" si="0">DEC2HEX(J4*2^11+K4*2^5+L4)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="10">
+        <f t="shared" ref="N4:N5" si="1">+J4*2^11+K4*2^5+L4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="1">
-        <f t="shared" ref="Q3:Q9" si="2">HEX2DEC(LEFT(RIGHT("000000"&amp;$P3,6),2))</f>
+      <c r="Q4" s="1">
+        <f t="shared" ref="Q4:Q10" si="2">HEX2DEC(LEFT(RIGHT("000000"&amp;$P4,6),2))</f>
         <v>31</v>
       </c>
-      <c r="R3" s="12">
-        <f t="shared" ref="R3:R9" si="3">HEX2DEC(MID(RIGHT("000000"&amp;$P3,6),3,2))</f>
+      <c r="R4" s="12">
+        <f t="shared" ref="R4:R10" si="3">HEX2DEC(MID(RIGHT("000000"&amp;$P4,6),3,2))</f>
         <v>63</v>
       </c>
-      <c r="S3" s="1">
-        <f t="shared" ref="S3:S9" si="4">HEX2DEC(RIGHT(RIGHT("000000"&amp;$P3,6),2))</f>
+      <c r="S4" s="1">
+        <f t="shared" ref="S4:S10" si="4">HEX2DEC(RIGHT(RIGHT("000000"&amp;$P4,6),2))</f>
         <v>31</v>
       </c>
-      <c r="T3" s="8" t="str">
-        <f t="shared" ref="T3:T9" si="5">DEC2HEX(Q3)&amp;DEC2HEX(R3)&amp;DEC2HEX(S3)</f>
+      <c r="T4" s="8" t="str">
+        <f t="shared" ref="T4:T10" si="5">DEC2HEX(Q4)&amp;DEC2HEX(R4)&amp;DEC2HEX(S4)</f>
         <v>1F3F1F</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
-        <f t="shared" ref="B4:B10" si="6">HEX2DEC(A4)</f>
+      <c r="B5" s="10">
+        <f t="shared" ref="B5:B11" si="6">HEX2DEC(A5)</f>
         <v>61440</v>
       </c>
-      <c r="C4" s="1">
-        <f t="shared" ref="C4:C10" si="7">INT(HEX2DEC($A4)/HEX2DEC(800))</f>
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:C12" si="7">INT(HEX2DEC($A5)/HEX2DEC(800))</f>
         <v>30</v>
       </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:D10" si="8">INT((HEX2DEC($A4)-INT(HEX2DEC($A4)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" ref="E4:E10" si="9">(HEX2DEC($A4)-INT(HEX2DEC($A4)/HEX2DEC(800))*HEX2DEC(800)-INT((HEX2DEC($A4)-INT(HEX2DEC($A4)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))*HEX2DEC(20))</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="9" t="str">
-        <f t="shared" ref="F4:F9" si="10">DEC2HEX(C4*2^3)&amp;DEC2HEX(D4*2^2)&amp;DEC2HEX(E4*2^3)</f>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D12" si="8">INT((HEX2DEC($A5)-INT(HEX2DEC($A5)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:E12" si="9">(HEX2DEC($A5)-INT(HEX2DEC($A5)/HEX2DEC(800))*HEX2DEC(800)-INT((HEX2DEC($A5)-INT(HEX2DEC($A5)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))*HEX2DEC(20))</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="9" t="str">
+        <f t="shared" ref="F5:F10" si="10">DEC2HEX(C5*2^3)&amp;DEC2HEX(D5*2^2)&amp;DEC2HEX(E5*2^3)</f>
         <v>F000</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="1">
-        <f t="shared" ref="J4:J17" si="11">INT(HEX2DEC(LEFT(RIGHT($I4,6),2))/2^3)</f>
+      <c r="J5" s="1">
+        <f t="shared" ref="J5:J19" si="11">INT(HEX2DEC(LEFT(RIGHT($I5,6),2))/2^3)</f>
         <v>31</v>
       </c>
-      <c r="K4" s="1">
-        <f t="shared" ref="K4:K17" si="12">INT(HEX2DEC(MID(RIGHT($I4,6),3,2))/2^2)</f>
+      <c r="K5" s="1">
+        <f t="shared" ref="K5:K19" si="12">INT(HEX2DEC(MID(RIGHT($I5,6),3,2))/2^2)</f>
         <v>63</v>
       </c>
-      <c r="L4" s="1">
-        <f t="shared" ref="L4:L17" si="13">INT(HEX2DEC(RIGHT(RIGHT($I4,6),2))/2^3)</f>
+      <c r="L5" s="1">
+        <f t="shared" ref="L5:L19" si="13">INT(HEX2DEC(RIGHT(RIGHT($I5,6),2))/2^3)</f>
         <v>31</v>
       </c>
-      <c r="M4" s="9" t="str">
+      <c r="M5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FFFF</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N5" s="10">
         <f t="shared" si="1"/>
         <v>65535</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q5" s="1">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R5" s="12">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S5" s="1">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="T4" s="8" t="str">
+      <c r="T5" s="8" t="str">
         <f t="shared" si="5"/>
         <v>1D3B1D</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B6" s="10">
         <f t="shared" si="6"/>
         <v>65535</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <f t="shared" si="7"/>
         <v>31</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
         <f t="shared" si="8"/>
         <v>63</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="1">
         <f t="shared" si="9"/>
         <v>31</v>
       </c>
-      <c r="F5" s="9" t="str">
+      <c r="F6" s="9" t="str">
         <f t="shared" si="10"/>
         <v>F8FCF8</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="11"/>
-        <v>31</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>F800</v>
-      </c>
-      <c r="N5" s="10">
-        <f>+J5*2^11+K5*2^5+L5</f>
-        <v>63488</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="1">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-      <c r="R5" s="12">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-      <c r="S5" s="1">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-      <c r="T5" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>FFFFFF</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
-        <v>700</v>
-      </c>
-      <c r="B6" s="10">
-        <f t="shared" si="6"/>
-        <v>1792</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="8"/>
-        <v>56</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v>0E00</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="11"/>
@@ -1075,7 +1069,7 @@
       </c>
       <c r="K6" s="1">
         <f t="shared" si="12"/>
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="13"/>
@@ -1083,39 +1077,39 @@
       </c>
       <c r="M6" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>FFE0</v>
+        <v>F800</v>
       </c>
       <c r="N6" s="10">
-        <f t="shared" ref="N6:N13" si="14">+J6*2^11+K6*2^5+L6</f>
-        <v>65504</v>
+        <f>+J6*2^11+K6*2^5+L6</f>
+        <v>63488</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="R6" s="12">
         <f t="shared" si="3"/>
-        <v>97</v>
+        <v>255</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" si="4"/>
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="T6" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>A61E9</v>
+        <v>FFFFFF</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>4</v>
+      <c r="A7" s="6">
+        <v>700</v>
       </c>
       <c r="B7" s="10">
         <f t="shared" si="6"/>
-        <v>224</v>
+        <v>1792</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="7"/>
@@ -1123,7 +1117,7 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="9"/>
@@ -1131,17 +1125,17 @@
       </c>
       <c r="F7" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>01C0</v>
+        <v>0E00</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="12"/>
@@ -1153,61 +1147,61 @@
       </c>
       <c r="M7" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>7E0</v>
+        <v>FFE0</v>
       </c>
       <c r="N7" s="10">
-        <f t="shared" si="14"/>
-        <v>2016</v>
+        <f t="shared" ref="N7:N14" si="14">+J7*2^11+K7*2^5+L7</f>
+        <v>65504</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="R7" s="12">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" si="4"/>
-        <v>31</v>
+        <v>233</v>
       </c>
       <c r="T7" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>1B3A1F</v>
+        <v>A61E9</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
-        <v>40</v>
+      <c r="A8" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="10">
-        <f>HEX2DEC(A8)</f>
-        <v>64</v>
+        <f t="shared" si="6"/>
+        <v>224</v>
       </c>
       <c r="C8" s="1">
-        <f>INT(HEX2DEC($A8)/HEX2DEC(800))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <f>INT((HEX2DEC($A8)-INT(HEX2DEC($A8)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))</f>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
       <c r="E8" s="1">
-        <f>(HEX2DEC($A8)-INT(HEX2DEC($A8)/HEX2DEC(800))*HEX2DEC(800)-INT((HEX2DEC($A8)-INT(HEX2DEC($A8)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))*HEX2DEC(20))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F8" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>080</v>
+        <v>01C0</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="11"/>
@@ -1219,167 +1213,210 @@
       </c>
       <c r="L8" s="1">
         <f t="shared" si="13"/>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M8" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>7FF</v>
+        <v>7E0</v>
       </c>
       <c r="N8" s="10">
         <f t="shared" si="14"/>
-        <v>2047</v>
+        <v>2016</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R8" s="12">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T8" s="8" t="str">
         <f t="shared" si="5"/>
+        <v>1B3A1F</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
+        <v>40</v>
+      </c>
+      <c r="B9" s="10">
+        <f>HEX2DEC(A9)</f>
+        <v>64</v>
+      </c>
+      <c r="C9" s="1">
+        <f>INT(HEX2DEC($A9)/HEX2DEC(800))</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <f>INT((HEX2DEC($A9)-INT(HEX2DEC($A9)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))</f>
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <f>(HEX2DEC($A9)-INT(HEX2DEC($A9)/HEX2DEC(800))*HEX2DEC(800)-INT((HEX2DEC($A9)-INT(HEX2DEC($A9)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))*HEX2DEC(20))</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>080</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="12"/>
+        <v>63</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="13"/>
+        <v>31</v>
+      </c>
+      <c r="M9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>7FF</v>
+      </c>
+      <c r="N9" s="10">
+        <f t="shared" si="14"/>
+        <v>2047</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="R9" s="12">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="T9" s="8" t="str">
+        <f t="shared" si="5"/>
         <v>1D3B1D</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B10" s="10">
         <f t="shared" si="6"/>
         <v>61213</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <f t="shared" si="8"/>
         <v>56</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E10" s="1">
         <f t="shared" si="9"/>
         <v>29</v>
       </c>
-      <c r="F9" s="9" t="str">
+      <c r="F10" s="9" t="str">
         <f t="shared" si="10"/>
         <v>E8E0E8</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I10" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="1">
-        <f>INT(HEX2DEC(LEFT(RIGHT($I9,6),2))/2^3)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <f>INT(HEX2DEC(MID(RIGHT($I9,6),3,2))/2^2)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <f>INT(HEX2DEC(RIGHT(RIGHT($I9,6),2))/2^3)</f>
+      <c r="J10" s="1">
+        <f>INT(HEX2DEC(LEFT(RIGHT($I10,6),2))/2^3)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <f>INT(HEX2DEC(MID(RIGHT($I10,6),3,2))/2^2)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>INT(HEX2DEC(RIGHT(RIGHT($I10,6),2))/2^3)</f>
         <v>31</v>
       </c>
-      <c r="M9" s="9" t="str">
+      <c r="M10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>1F</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N10" s="10">
         <f t="shared" si="14"/>
         <v>31</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="P10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q10" s="12">
         <f t="shared" si="2"/>
         <v>216</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R10" s="12">
         <f t="shared" si="3"/>
         <v>232</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S10" s="12">
         <f t="shared" si="4"/>
         <v>248</v>
       </c>
-      <c r="T9" s="8" t="str">
+      <c r="T10" s="8" t="str">
         <f t="shared" si="5"/>
         <v>D8E8F8</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
         <v>83</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B11" s="10">
         <f t="shared" si="6"/>
         <v>131</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="1">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E11" s="1">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="F10" s="9" t="str">
-        <f>DEC2HEX(C10*2^3)&amp;"_"&amp;DEC2HEX(D10*2^2)&amp;"_"&amp;DEC2HEX(E10*2^3)</f>
+      <c r="F11" s="9" t="str">
+        <f>DEC2HEX(C11*2^3)&amp;"_"&amp;DEC2HEX(D11*2^2)&amp;"_"&amp;DEC2HEX(E11*2^3)</f>
         <v>0_10_18</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I11" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J11" s="1">
         <f t="shared" si="11"/>
         <v>31</v>
       </c>
-      <c r="K10" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <f t="shared" si="13"/>
-        <v>31</v>
-      </c>
-      <c r="M10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>F81F</v>
-      </c>
-      <c r="N10" s="10">
-        <f t="shared" si="14"/>
-        <v>63519</v>
-      </c>
-      <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="F11" s="9"/>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="K11" s="1">
         <f t="shared" si="12"/>
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="13"/>
@@ -1387,16 +1424,40 @@
       </c>
       <c r="M11" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>7FF</v>
+        <v>F81F</v>
       </c>
       <c r="N11" s="10">
         <f t="shared" si="14"/>
-        <v>2047</v>
-      </c>
+        <v>63519</v>
+      </c>
+      <c r="P11" s="6"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>2104</v>
+      </c>
+      <c r="B12" s="10">
+        <f t="shared" ref="B12" si="15">HEX2DEC(A12)</f>
+        <v>8452</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="F12" s="9" t="str">
+        <f>DEC2HEX(C12*2^3)&amp;"_"&amp;DEC2HEX(D12*2^2)&amp;"_"&amp;DEC2HEX(E12*2^3)</f>
+        <v>20_20_20</v>
+      </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="11"/>
@@ -1404,24 +1465,24 @@
       </c>
       <c r="K12" s="1">
         <f t="shared" si="12"/>
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="13"/>
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="M12" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>448</v>
+        <v>7FF</v>
       </c>
       <c r="N12" s="10">
         <f t="shared" si="14"/>
-        <v>1096</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="I13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="11"/>
@@ -1429,119 +1490,159 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" si="12"/>
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="13"/>
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="M13" s="9" t="str">
-        <f t="shared" ref="M13" si="15">DEC2HEX(J13*2^11+K13*2^5+L13)</f>
-        <v>73D</v>
+        <f t="shared" si="0"/>
+        <v>448</v>
       </c>
       <c r="N13" s="10">
         <f t="shared" si="14"/>
-        <v>1853</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="I14" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="M14" s="9" t="str">
-        <f>DEC2HEX(J14*2^11+K14*2^5+L14)</f>
-        <v>3186</v>
+        <f t="shared" ref="M14" si="16">DEC2HEX(J14*2^11+K14*2^5+L14)</f>
+        <v>73D</v>
       </c>
       <c r="N14" s="10">
-        <f>+J14*2^11+K14*2^5+L14</f>
-        <v>12678</v>
+        <f t="shared" si="14"/>
+        <v>1853</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="I15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="12"/>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="13"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M15" s="9" t="str">
-        <f t="shared" ref="M15:M17" si="16">DEC2HEX(J15*2^11+K15*2^5+L15)</f>
-        <v>632C</v>
+        <f>DEC2HEX(J15*2^11+K15*2^5+L15)</f>
+        <v>3186</v>
       </c>
       <c r="N15" s="10">
         <f>+J15*2^11+K15*2^5+L15</f>
-        <v>25388</v>
+        <v>12678</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="I16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="12"/>
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="13"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M16" s="9" t="str">
-        <f t="shared" si="16"/>
-        <v>9CD3</v>
+        <f t="shared" ref="M16:M18" si="17">DEC2HEX(J16*2^11+K16*2^5+L16)</f>
+        <v>632C</v>
       </c>
       <c r="N16" s="10">
-        <f>+'RGB24'!N14*2^11+'RGB24'!O14*2^5+'RGB24'!P14</f>
-        <v>53895</v>
+        <f>+J16*2^11+K16*2^5+L16</f>
+        <v>25388</v>
       </c>
     </row>
     <row r="17" spans="9:21" x14ac:dyDescent="0.15">
       <c r="I17" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="M17" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
+        <v>9CD3</v>
+      </c>
+      <c r="N17" s="10">
+        <f>+'RGB24'!N15*2^11+'RGB24'!O15*2^5+'RGB24'!P15</f>
+        <v>53895</v>
+      </c>
+    </row>
+    <row r="18" spans="9:21" x14ac:dyDescent="0.15">
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="M18" s="9" t="str">
+        <f t="shared" si="17"/>
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="9:21" x14ac:dyDescent="0.15">
-      <c r="U18" s="1"/>
+    <row r="19" spans="9:21" x14ac:dyDescent="0.15">
+      <c r="J19" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>4</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="9" t="str">
+        <f t="shared" ref="M19" si="18">DEC2HEX(J19*2^11+K19*2^5+L19)</f>
+        <v>80</v>
+      </c>
+      <c r="U19" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A1:A24">
@@ -1555,10 +1656,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.9" x14ac:dyDescent="0.15"/>
@@ -1574,133 +1676,92 @@
     <col min="13" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:18" ht="13.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="C2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="15" t="s">
+      <c r="I2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="15" t="s">
+      <c r="M2" s="14"/>
+      <c r="N2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A2" s="15">
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A3" s="15">
         <v>8410</v>
       </c>
-      <c r="B2" s="14">
-        <f>HEX2DEC(A2)</f>
+      <c r="B3" s="14">
+        <f>HEX2DEC(A3)</f>
         <v>33808</v>
       </c>
-      <c r="C2" s="14">
-        <f>INT(HEX2DEC($A2)/HEX2DEC(800))</f>
+      <c r="C3" s="14">
+        <f>INT(HEX2DEC($A3)/HEX2DEC(800))</f>
         <v>16</v>
       </c>
-      <c r="D2" s="14">
-        <f>INT((HEX2DEC($A2)-INT(HEX2DEC($A2)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))</f>
+      <c r="D3" s="14">
+        <f>INT((HEX2DEC($A3)-INT(HEX2DEC($A3)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))</f>
         <v>32</v>
       </c>
-      <c r="E2" s="14">
-        <f>(HEX2DEC($A2)-INT(HEX2DEC($A2)/HEX2DEC(800))*HEX2DEC(800)-INT((HEX2DEC($A2)-INT(HEX2DEC($A2)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))*HEX2DEC(20))</f>
+      <c r="E3" s="14">
+        <f>(HEX2DEC($A3)-INT(HEX2DEC($A3)/HEX2DEC(800))*HEX2DEC(800)-INT((HEX2DEC($A3)-INT(HEX2DEC($A3)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))*HEX2DEC(20))</f>
         <v>16</v>
       </c>
-      <c r="F2" s="14" t="str">
-        <f>DEC2HEX(C2*2^3)&amp;DEC2HEX(D2*2^2)&amp;DEC2HEX(E2*2^3)</f>
+      <c r="F3" s="14" t="str">
+        <f>DEC2HEX(C3*2^3)&amp;DEC2HEX(D3*2^2)&amp;DEC2HEX(E3*2^3)</f>
         <v>808080</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H3" s="15">
         <v>101010</v>
-      </c>
-      <c r="I2" s="14">
-        <f>INT(HEX2DEC(LEFT($H2,2))/2^3)</f>
-        <v>2</v>
-      </c>
-      <c r="J2" s="14">
-        <f>INT(HEX2DEC(MID($H2,3,2))/2^2)</f>
-        <v>4</v>
-      </c>
-      <c r="K2" s="14">
-        <f>INT(HEX2DEC(RIGHT($H2,2))/2^3)</f>
-        <v>2</v>
-      </c>
-      <c r="M2" s="15">
-        <v>808080</v>
-      </c>
-      <c r="N2" s="14">
-        <f t="shared" ref="N2:N11" si="0">INT(HEX2DEC(LEFT(RIGHT("000000"&amp;$M2,6),2))/2^3)</f>
-        <v>16</v>
-      </c>
-      <c r="O2" s="14">
-        <f t="shared" ref="O2:O11" si="1">INT(HEX2DEC(MID(RIGHT("000000"&amp;$M2,6),3,2))/2^2)</f>
-        <v>32</v>
-      </c>
-      <c r="P2" s="14">
-        <f t="shared" ref="P2:P13" si="2">INT(HEX2DEC(RIGHT($M2,2))/2^3)</f>
-        <v>16</v>
-      </c>
-      <c r="Q2" s="14" t="str">
-        <f>DEC2HEX(N2*2^11+O2*2^5+P2)</f>
-        <v>8410</v>
-      </c>
-      <c r="R2" s="14">
-        <f t="shared" ref="R2:R4" si="3">+N2*2^11+O2*2^5+P2</f>
-        <v>33808</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="14">
-        <f t="shared" ref="B3:B10" si="4">HEX2DEC(A3)</f>
-        <v>61440</v>
-      </c>
-      <c r="C3" s="14">
-        <f t="shared" ref="C3:C10" si="5">INT(HEX2DEC($A3)/HEX2DEC(800))</f>
-        <v>30</v>
-      </c>
-      <c r="D3" s="14">
-        <f t="shared" ref="D3:D10" si="6">INT((HEX2DEC($A3)-INT(HEX2DEC($A3)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="14">
-        <f t="shared" ref="E3:E10" si="7">(HEX2DEC($A3)-INT(HEX2DEC($A3)/HEX2DEC(800))*HEX2DEC(800)-INT((HEX2DEC($A3)-INT(HEX2DEC($A3)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))*HEX2DEC(20))</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="14" t="str">
-        <f t="shared" ref="F3:F10" si="8">DEC2HEX(C3*2^3)&amp;DEC2HEX(D3*2^2)&amp;DEC2HEX(E3*2^3)</f>
-        <v>F000</v>
-      </c>
-      <c r="H3" s="15">
-        <v>100110</v>
       </c>
       <c r="I3" s="14">
         <f>INT(HEX2DEC(LEFT($H3,2))/2^3)</f>
@@ -1708,870 +1769,1045 @@
       </c>
       <c r="J3" s="14">
         <f>INT(HEX2DEC(MID($H3,3,2))/2^2)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K3" s="14">
         <f>INT(HEX2DEC(RIGHT($H3,2))/2^3)</f>
         <v>2</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="15">
+        <v>808080</v>
+      </c>
+      <c r="N3" s="14">
+        <f t="shared" ref="N3:N12" si="0">INT(HEX2DEC(LEFT(RIGHT("000000"&amp;$M3,6),2))/2^3)</f>
+        <v>16</v>
+      </c>
+      <c r="O3" s="14">
+        <f t="shared" ref="O3:O12" si="1">INT(HEX2DEC(MID(RIGHT("000000"&amp;$M3,6),3,2))/2^2)</f>
+        <v>32</v>
+      </c>
+      <c r="P3" s="14">
+        <f t="shared" ref="P3:P14" si="2">INT(HEX2DEC(RIGHT($M3,2))/2^3)</f>
+        <v>16</v>
+      </c>
+      <c r="Q3" s="14" t="str">
+        <f>DEC2HEX(N3*2^11+O3*2^5+P3)</f>
+        <v>8410</v>
+      </c>
+      <c r="R3" s="14">
+        <f t="shared" ref="R3:R5" si="3">+N3*2^11+O3*2^5+P3</f>
+        <v>33808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14">
+        <f t="shared" ref="B4:B13" si="4">HEX2DEC(A4)</f>
+        <v>61440</v>
+      </c>
+      <c r="C4" s="14">
+        <f t="shared" ref="C4:C13" si="5">INT(HEX2DEC($A4)/HEX2DEC(800))</f>
+        <v>30</v>
+      </c>
+      <c r="D4" s="14">
+        <f t="shared" ref="D4:D13" si="6">INT((HEX2DEC($A4)-INT(HEX2DEC($A4)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <f t="shared" ref="E4:E13" si="7">(HEX2DEC($A4)-INT(HEX2DEC($A4)/HEX2DEC(800))*HEX2DEC(800)-INT((HEX2DEC($A4)-INT(HEX2DEC($A4)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))*HEX2DEC(20))</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="14" t="str">
+        <f t="shared" ref="F4:F11" si="8">DEC2HEX(C4*2^3)&amp;DEC2HEX(D4*2^2)&amp;DEC2HEX(E4*2^3)</f>
+        <v>F000</v>
+      </c>
+      <c r="H4" s="15">
+        <v>100110</v>
+      </c>
+      <c r="I4" s="14">
+        <f>INT(HEX2DEC(LEFT($H4,2))/2^3)</f>
+        <v>2</v>
+      </c>
+      <c r="J4" s="14">
+        <f>INT(HEX2DEC(MID($H4,3,2))/2^2)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
+        <f>INT(HEX2DEC(RIGHT($H4,2))/2^3)</f>
+        <v>2</v>
+      </c>
+      <c r="M4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N4" s="14">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O4" s="14">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P4" s="14">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="Q3" s="14" t="str">
-        <f t="shared" ref="Q3:Q12" si="9">DEC2HEX(N3*2^11+O3*2^5+P3)</f>
+      <c r="Q4" s="14" t="str">
+        <f t="shared" ref="Q4:Q13" si="9">DEC2HEX(N4*2^11+O4*2^5+P4)</f>
         <v>FFFF</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R4" s="14">
         <f t="shared" si="3"/>
         <v>65535</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A4" s="15" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B5" s="14">
         <f t="shared" si="4"/>
         <v>65535</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C5" s="14">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D5" s="14">
         <f t="shared" si="6"/>
         <v>63</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E5" s="14">
         <f t="shared" si="7"/>
         <v>31</v>
       </c>
-      <c r="F4" s="14" t="str">
+      <c r="F5" s="14" t="str">
         <f t="shared" si="8"/>
         <v>F8FCF8</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="14">
-        <f>INT(HEX2DEC(LEFT($H4,2))/2^3)</f>
+      <c r="I5" s="14">
+        <f>INT(HEX2DEC(LEFT($H5,2))/2^3)</f>
         <v>31</v>
       </c>
-      <c r="J4" s="14">
-        <f>INT(HEX2DEC(MID($H4,3,2))/2^2)</f>
+      <c r="J5" s="14">
+        <f>INT(HEX2DEC(MID($H5,3,2))/2^2)</f>
         <v>63</v>
       </c>
-      <c r="K4" s="14">
-        <f>INT(HEX2DEC(RIGHT($H4,2))/2^3)</f>
+      <c r="K5" s="14">
+        <f>INT(HEX2DEC(RIGHT($H5,2))/2^3)</f>
         <v>31</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N5" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O5" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P5" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="14" t="str">
+      <c r="Q5" s="14" t="str">
         <f t="shared" si="9"/>
         <v>80</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R5" s="14">
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="12.55" x14ac:dyDescent="0.15">
-      <c r="A5" s="15">
+    <row r="6" spans="1:18" ht="12.55" x14ac:dyDescent="0.15">
+      <c r="A6" s="15">
         <v>700</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B6" s="14">
         <f t="shared" si="4"/>
         <v>1792</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C6" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D6" s="14">
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E6" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F5" s="14" t="str">
+      <c r="F6" s="14" t="str">
         <f t="shared" si="8"/>
         <v>0E00</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="14">
-        <f>INT(HEX2DEC(LEFT($H5,2))/2^3)</f>
+      <c r="I6" s="14">
+        <f>INT(HEX2DEC(LEFT($H6,2))/2^3)</f>
         <v>29</v>
       </c>
-      <c r="J5" s="14">
-        <f>INT(HEX2DEC(MID($H5,3,2))/2^2)</f>
+      <c r="J6" s="14">
+        <f>INT(HEX2DEC(MID($H6,3,2))/2^2)</f>
         <v>59</v>
       </c>
-      <c r="K5" s="14">
-        <f>INT(HEX2DEC(RIGHT($H5,2))/2^3)</f>
+      <c r="K6" s="14">
+        <f>INT(HEX2DEC(RIGHT($H6,2))/2^3)</f>
         <v>29</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N6" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O6" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P6" s="14">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="Q5" s="14" t="str">
+      <c r="Q6" s="14" t="str">
         <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="R5" s="14">
-        <f>+N5*2^11+O5*2^5+P5</f>
+      <c r="R6" s="14">
+        <f>+N6*2^11+O6*2^5+P6</f>
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="12.55" x14ac:dyDescent="0.15">
-      <c r="A6" s="15" t="s">
+    <row r="7" spans="1:18" ht="12.55" x14ac:dyDescent="0.15">
+      <c r="A7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B7" s="14">
         <f t="shared" si="4"/>
         <v>224</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C7" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D7" s="14">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E7" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F6" s="14" t="str">
+      <c r="F7" s="14" t="str">
         <f t="shared" si="8"/>
         <v>01C0</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="14">
-        <f>INT(HEX2DEC(LEFT($H6,2))/2^3)</f>
+      <c r="I7" s="14">
+        <f>INT(HEX2DEC(LEFT($H7,2))/2^3)</f>
         <v>27</v>
       </c>
-      <c r="J6" s="14">
-        <f>INT(HEX2DEC(MID($H6,3,2))/2^2)</f>
+      <c r="J7" s="14">
+        <f>INT(HEX2DEC(MID($H7,3,2))/2^2)</f>
         <v>58</v>
       </c>
-      <c r="K6" s="14">
-        <f>INT(HEX2DEC(RIGHT($H6,2))/2^3)</f>
+      <c r="K7" s="14">
+        <f>INT(HEX2DEC(RIGHT($H7,2))/2^3)</f>
         <v>31</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N7" s="14">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O7" s="14">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P7" s="14">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="Q6" s="14" t="str">
+      <c r="Q7" s="14" t="str">
         <f t="shared" si="9"/>
         <v>EF1D</v>
       </c>
-      <c r="R6" s="14">
-        <f t="shared" ref="R6:R12" si="10">+N6*2^11+O6*2^5+P6</f>
+      <c r="R7" s="14">
+        <f t="shared" ref="R7:R23" si="10">+N7*2^11+O7*2^5+P7</f>
         <v>61213</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="12.55" x14ac:dyDescent="0.15">
-      <c r="A7" s="15">
+    <row r="8" spans="1:18" ht="12.55" x14ac:dyDescent="0.15">
+      <c r="A8" s="15">
         <v>40</v>
       </c>
-      <c r="B7" s="14">
-        <f>HEX2DEC(A7)</f>
+      <c r="B8" s="14">
+        <f>HEX2DEC(A8)</f>
         <v>64</v>
       </c>
-      <c r="C7" s="14">
-        <f>INT(HEX2DEC($A7)/HEX2DEC(800))</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="14">
-        <f>INT((HEX2DEC($A7)-INT(HEX2DEC($A7)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))</f>
+      <c r="C8" s="14">
+        <f>INT(HEX2DEC($A8)/HEX2DEC(800))</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="14">
+        <f>INT((HEX2DEC($A8)-INT(HEX2DEC($A8)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))</f>
         <v>2</v>
       </c>
-      <c r="E7" s="14">
-        <f>(HEX2DEC($A7)-INT(HEX2DEC($A7)/HEX2DEC(800))*HEX2DEC(800)-INT((HEX2DEC($A7)-INT(HEX2DEC($A7)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))*HEX2DEC(20))</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="14" t="str">
+      <c r="E8" s="14">
+        <f>(HEX2DEC($A8)-INT(HEX2DEC($A8)/HEX2DEC(800))*HEX2DEC(800)-INT((HEX2DEC($A8)-INT(HEX2DEC($A8)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))*HEX2DEC(20))</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="14" t="str">
         <f t="shared" si="8"/>
         <v>080</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="M7" s="18" t="s">
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="M8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N8" s="14">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O8" s="14">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P8" s="14">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="Q7" s="14" t="str">
+      <c r="Q8" s="14" t="str">
         <f t="shared" si="9"/>
         <v>FFFF</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R8" s="14">
         <f t="shared" si="10"/>
         <v>65535</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="12.55" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
+    <row r="9" spans="1:18" ht="12.55" x14ac:dyDescent="0.15">
+      <c r="A9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B9" s="14">
         <f t="shared" si="4"/>
         <v>61213</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C9" s="14">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D9" s="14">
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E9" s="14">
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
-      <c r="F8" s="14" t="str">
+      <c r="F9" s="14" t="str">
         <f t="shared" si="8"/>
         <v>E8E0E8</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="M8" s="18">
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="M9" s="18">
         <v>585858</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N9" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O9" s="14">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P9" s="14">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="Q8" s="14" t="str">
+      <c r="Q9" s="14" t="str">
         <f t="shared" si="9"/>
         <v>5ACB</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R9" s="14">
         <f t="shared" si="10"/>
         <v>23243</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="12.55" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
+    <row r="10" spans="1:18" ht="12.55" x14ac:dyDescent="0.15">
+      <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B10" s="14">
         <f t="shared" si="4"/>
         <v>23243</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C10" s="14">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D10" s="14">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E10" s="14">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="F9" s="14" t="str">
+      <c r="F10" s="14" t="str">
         <f t="shared" si="8"/>
         <v>585858</v>
       </c>
-      <c r="H9" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15" t="s">
+      <c r="H10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N10" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O10" s="14">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P10" s="14">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="Q9" s="14" t="str">
+      <c r="Q10" s="14" t="str">
         <f t="shared" si="9"/>
         <v>4CB9</v>
       </c>
-      <c r="R9" s="19">
+      <c r="R10" s="19">
         <f t="shared" si="10"/>
         <v>19641</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A10" s="14" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B11" s="14">
         <f t="shared" si="4"/>
         <v>2845</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C11" s="14">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D11" s="14">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E11" s="14">
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
-      <c r="F10" s="14" t="str">
+      <c r="F11" s="14" t="str">
         <f t="shared" si="8"/>
         <v>860E8</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H11" s="15">
         <v>31</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I11" s="15">
         <v>63</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J11" s="15">
         <v>31</v>
       </c>
-      <c r="K10" s="16" t="str">
-        <f t="shared" ref="K10:K13" si="11">DEC2HEX(H10)&amp;DEC2HEX(I10)&amp;DEC2HEX(J10)</f>
+      <c r="K11" s="16" t="str">
+        <f t="shared" ref="K11:K14" si="11">DEC2HEX(H11)&amp;DEC2HEX(I11)&amp;DEC2HEX(J11)</f>
         <v>1F3F1F</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N11" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O11" s="14">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P11" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="14" t="str">
+      <c r="Q11" s="14" t="str">
         <f t="shared" si="9"/>
         <v>85C0</v>
       </c>
-      <c r="R10" s="19">
+      <c r="R11" s="19">
         <f t="shared" si="10"/>
         <v>34240</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="12.55" x14ac:dyDescent="0.15">
-      <c r="H11" s="15">
+    <row r="12" spans="1:18" ht="12.55" x14ac:dyDescent="0.15">
+      <c r="A12" s="14" t="str">
+        <f>DEC2HEX(B12)</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="14">
+        <v>0</v>
+      </c>
+      <c r="C12" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="14" t="str">
+        <f t="shared" ref="F12" si="12">DEC2HEX(C12*2^3)&amp;DEC2HEX(D12*2^2)&amp;DEC2HEX(E12*2^3)</f>
+        <v>000</v>
+      </c>
+      <c r="H12" s="15">
         <v>29</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I12" s="15">
         <v>59</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J12" s="15">
         <v>29</v>
       </c>
-      <c r="K11" s="16" t="str">
+      <c r="K12" s="16" t="str">
         <f t="shared" si="11"/>
         <v>1D3B1D</v>
       </c>
-      <c r="M11" s="18" t="s">
+      <c r="M12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N12" s="14">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O12" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P12" s="14">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="Q11" s="14" t="str">
+      <c r="Q12" s="14" t="str">
         <f t="shared" si="9"/>
         <v>C88E</v>
       </c>
-      <c r="R11" s="19">
+      <c r="R12" s="19">
         <f t="shared" si="10"/>
         <v>51342</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="H12" s="15">
+    <row r="13" spans="1:18" ht="13.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>2104</v>
+      </c>
+      <c r="B13" s="14">
+        <f t="shared" si="4"/>
+        <v>8452</v>
+      </c>
+      <c r="C13" s="14">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D13" s="14">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="E13" s="14">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="F13" s="14" t="str">
+        <f t="shared" ref="F13" si="13">DEC2HEX(C13*2^3)&amp;DEC2HEX(D13*2^2)&amp;DEC2HEX(E13*2^3)</f>
+        <v>202020</v>
+      </c>
+      <c r="H13" s="15">
         <v>255</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I13" s="15">
         <v>255</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J13" s="15">
         <v>255</v>
       </c>
-      <c r="K12" s="16" t="str">
+      <c r="K13" s="16" t="str">
         <f t="shared" si="11"/>
         <v>FFFFFF</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="14">
-        <f>INT(HEX2DEC(LEFT(RIGHT("000000"&amp;$M12,6),2))/2^3)</f>
+      <c r="N13" s="14">
+        <f>INT(HEX2DEC(LEFT(RIGHT("000000"&amp;$M13,6),2))/2^3)</f>
         <v>1</v>
       </c>
-      <c r="O12" s="14">
-        <f>INT(HEX2DEC(MID(RIGHT("000000"&amp;$M12,6),3,2))/2^2)</f>
+      <c r="O13" s="14">
+        <f>INT(HEX2DEC(MID(RIGHT("000000"&amp;$M13,6),3,2))/2^2)</f>
         <v>24</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P13" s="14">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="Q12" s="14" t="str">
+      <c r="Q13" s="14" t="str">
         <f t="shared" si="9"/>
         <v>B1D</v>
       </c>
-      <c r="R12" s="19">
+      <c r="R13" s="19">
         <f t="shared" si="10"/>
         <v>2845</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="H13" s="15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="H14" s="15">
         <v>10</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I14" s="15">
         <v>97</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J14" s="15">
         <v>233</v>
       </c>
-      <c r="K13" s="16" t="str">
+      <c r="K14" s="16" t="str">
         <f t="shared" si="11"/>
         <v>A61E9</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="14">
-        <f t="shared" ref="N13" si="12">INT(HEX2DEC(LEFT(RIGHT("000000"&amp;$M13,6),2))/2^3)</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="14">
-        <f t="shared" ref="O13" si="13">INT(HEX2DEC(MID(RIGHT("000000"&amp;$M13,6),3,2))/2^2)</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="14">
+      <c r="M14" s="15"/>
+      <c r="N14" s="14">
+        <f t="shared" ref="N14" si="14">INT(HEX2DEC(LEFT(RIGHT("000000"&amp;$M14,6),2))/2^3)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="14">
+        <f t="shared" ref="O14" si="15">INT(HEX2DEC(MID(RIGHT("000000"&amp;$M14,6),3,2))/2^2)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="14" t="str">
-        <f t="shared" ref="Q13" si="14">DEC2HEX(N13*2^11+O13*2^5+P13)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="19"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="G14" s="20" t="s">
+      <c r="Q14" s="14" t="str">
+        <f t="shared" ref="Q14" si="16">DEC2HEX(N14*2^11+O14*2^5+P14)</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="G15" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H15" s="14">
         <v>210</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I15" s="14">
         <v>81</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J15" s="14">
         <v>58</v>
       </c>
-      <c r="K14" s="16" t="str">
-        <f>DEC2HEX(H14)&amp;DEC2HEX(I14)&amp;DEC2HEX(J14)</f>
+      <c r="K15" s="16" t="str">
+        <f>DEC2HEX(H15)&amp;DEC2HEX(I15)&amp;DEC2HEX(J15)</f>
         <v>D2513A</v>
       </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="16" t="str">
-        <f>"#"&amp;RIGHT("000000"&amp;K14,6)</f>
+      <c r="L15" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="16" t="str">
+        <f>"#"&amp;RIGHT("000000"&amp;K15,6)</f>
         <v>#D2513A</v>
       </c>
-      <c r="N14" s="14">
-        <f>INT(HEX2DEC(LEFT(RIGHT($M14,6),2))/2^3)</f>
+      <c r="N15" s="14">
+        <f>INT(HEX2DEC(LEFT(RIGHT($M15,6),2))/2^3)</f>
         <v>26</v>
       </c>
-      <c r="O14" s="14">
-        <f>INT(HEX2DEC(MID(RIGHT($M14,6),3,2))/2^2)</f>
+      <c r="O15" s="14">
+        <f>INT(HEX2DEC(MID(RIGHT($M15,6),3,2))/2^2)</f>
         <v>20</v>
       </c>
-      <c r="P14" s="14">
-        <f>INT(HEX2DEC(RIGHT(RIGHT($M14,6),2))/2^3)</f>
+      <c r="P15" s="14">
+        <f>INT(HEX2DEC(RIGHT(RIGHT($M15,6),2))/2^3)</f>
         <v>7</v>
       </c>
-      <c r="Q14" s="21" t="str">
-        <f>DEC2HEX(N14*2^11+O14*2^5+P14)</f>
+      <c r="Q15" s="21" t="str">
+        <f>DEC2HEX(N15*2^11+O15*2^5+P15)</f>
         <v>D287</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="H15" s="14">
-        <v>86</v>
-      </c>
-      <c r="I15" s="14">
-        <v>138</v>
-      </c>
-      <c r="J15" s="14">
-        <v>214</v>
-      </c>
-      <c r="K15" s="16" t="str">
-        <f t="shared" ref="K15:K21" si="15">DEC2HEX(H15)&amp;DEC2HEX(I15)&amp;DEC2HEX(J15)</f>
-        <v>568AD6</v>
-      </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="16" t="str">
-        <f t="shared" ref="M15:M21" si="16">"#"&amp;RIGHT("000000"&amp;K15,6)</f>
-        <v>#568AD6</v>
-      </c>
-      <c r="N15" s="14">
-        <f t="shared" ref="N15:N21" si="17">INT(HEX2DEC(LEFT(RIGHT($M15,6),2))/2^3)</f>
-        <v>10</v>
-      </c>
-      <c r="O15" s="14">
-        <f t="shared" ref="O15:O21" si="18">INT(HEX2DEC(MID(RIGHT($M15,6),3,2))/2^2)</f>
-        <v>34</v>
-      </c>
-      <c r="P15" s="14">
-        <f t="shared" ref="P15:P21" si="19">INT(HEX2DEC(RIGHT(RIGHT($M15,6),2))/2^3)</f>
-        <v>26</v>
-      </c>
-      <c r="Q15" s="21" t="str">
-        <f t="shared" ref="Q15:Q21" si="20">DEC2HEX(N15*2^11+O15*2^5+P15)</f>
-        <v>545A</v>
+      <c r="R15" s="19">
+        <f t="shared" si="10"/>
+        <v>53895</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H16" s="14">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="I16" s="14">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="J16" s="14">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="K16" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>7E46DB</v>
-      </c>
-      <c r="L16" s="14"/>
+        <f t="shared" ref="K16:K23" si="17">DEC2HEX(H16)&amp;DEC2HEX(I16)&amp;DEC2HEX(J16)</f>
+        <v>568AD6</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="M16" s="16" t="str">
-        <f t="shared" si="16"/>
-        <v>#7E46DB</v>
+        <f t="shared" ref="M16:M23" si="18">"#"&amp;RIGHT("000000"&amp;K16,6)</f>
+        <v>#568AD6</v>
       </c>
       <c r="N16" s="14">
-        <f t="shared" si="17"/>
-        <v>15</v>
+        <f t="shared" ref="N16:N23" si="19">INT(HEX2DEC(LEFT(RIGHT($M16,6),2))/2^3)</f>
+        <v>10</v>
       </c>
       <c r="O16" s="14">
-        <f t="shared" si="18"/>
-        <v>17</v>
+        <f t="shared" ref="O16:O23" si="20">INT(HEX2DEC(MID(RIGHT($M16,6),3,2))/2^2)</f>
+        <v>34</v>
       </c>
       <c r="P16" s="14">
-        <f t="shared" si="19"/>
-        <v>27</v>
+        <f t="shared" ref="P16:P23" si="21">INT(HEX2DEC(RIGHT(RIGHT($M16,6),2))/2^3)</f>
+        <v>26</v>
       </c>
       <c r="Q16" s="21" t="str">
-        <f t="shared" si="20"/>
-        <v>7A3B</v>
+        <f t="shared" ref="Q16:Q23" si="22">DEC2HEX(N16*2^11+O16*2^5+P16)</f>
+        <v>545A</v>
+      </c>
+      <c r="R16" s="19">
+        <f t="shared" si="10"/>
+        <v>21594</v>
       </c>
     </row>
     <row r="17" spans="8:19" x14ac:dyDescent="0.15">
       <c r="H17" s="14">
+        <v>126</v>
+      </c>
+      <c r="I17" s="14">
+        <v>70</v>
+      </c>
+      <c r="J17" s="14">
+        <v>219</v>
+      </c>
+      <c r="K17" s="16" t="str">
+        <f t="shared" si="17"/>
+        <v>7E46DB</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" s="16" t="str">
+        <f t="shared" si="18"/>
+        <v>#7E46DB</v>
+      </c>
+      <c r="N17" s="14">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="O17" s="14">
+        <f t="shared" si="20"/>
+        <v>17</v>
+      </c>
+      <c r="P17" s="14">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="Q17" s="21" t="str">
+        <f t="shared" si="22"/>
+        <v>7A3B</v>
+      </c>
+      <c r="R17" s="19">
+        <f t="shared" si="10"/>
+        <v>31291</v>
+      </c>
+    </row>
+    <row r="18" spans="8:19" x14ac:dyDescent="0.15">
+      <c r="H18" s="14">
         <v>124</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I18" s="14">
         <v>183</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J18" s="14">
         <v>91</v>
       </c>
-      <c r="K17" s="16" t="str">
-        <f t="shared" si="15"/>
+      <c r="K18" s="16" t="str">
+        <f t="shared" si="17"/>
         <v>7CB75B</v>
       </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="16" t="str">
-        <f t="shared" si="16"/>
+      <c r="L18" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18" s="16" t="str">
+        <f t="shared" si="18"/>
         <v>#7CB75B</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N18" s="14">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="O18" s="14">
+        <f t="shared" si="20"/>
+        <v>45</v>
+      </c>
+      <c r="P18" s="14">
+        <f t="shared" si="21"/>
+        <v>11</v>
+      </c>
+      <c r="Q18" s="21" t="str">
+        <f t="shared" si="22"/>
+        <v>7DAB</v>
+      </c>
+      <c r="R18" s="19">
+        <f t="shared" si="10"/>
+        <v>32171</v>
+      </c>
+    </row>
+    <row r="19" spans="8:19" x14ac:dyDescent="0.15">
+      <c r="H19" s="14">
+        <v>76</v>
+      </c>
+      <c r="I19" s="14">
+        <v>106</v>
+      </c>
+      <c r="J19" s="14">
+        <v>36</v>
+      </c>
+      <c r="K19" s="16" t="str">
         <f t="shared" si="17"/>
-        <v>15</v>
-      </c>
-      <c r="O17" s="14">
+        <v>4C6A24</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="M19" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>45</v>
-      </c>
-      <c r="P17" s="14">
+        <v>#4C6A24</v>
+      </c>
+      <c r="N19" s="14">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="O19" s="14">
+        <f t="shared" si="20"/>
+        <v>26</v>
+      </c>
+      <c r="P19" s="14">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="Q19" s="21" t="str">
+        <f t="shared" si="22"/>
+        <v>4B44</v>
+      </c>
+      <c r="R19" s="19">
+        <f t="shared" si="10"/>
+        <v>19268</v>
+      </c>
+    </row>
+    <row r="20" spans="8:19" x14ac:dyDescent="0.15">
+      <c r="H20" s="14">
+        <v>175</v>
+      </c>
+      <c r="I20" s="14">
+        <v>68</v>
+      </c>
+      <c r="J20" s="14">
+        <v>48</v>
+      </c>
+      <c r="K20" s="16" t="str">
+        <f t="shared" si="17"/>
+        <v>AF4430</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" s="16" t="str">
+        <f t="shared" si="18"/>
+        <v>#AF4430</v>
+      </c>
+      <c r="N20" s="14">
+        <f t="shared" si="19"/>
+        <v>21</v>
+      </c>
+      <c r="O20" s="14">
+        <f t="shared" si="20"/>
+        <v>17</v>
+      </c>
+      <c r="P20" s="14">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="Q20" s="21" t="str">
+        <f t="shared" si="22"/>
+        <v>AA26</v>
+      </c>
+      <c r="R20" s="19">
+        <f t="shared" si="10"/>
+        <v>43558</v>
+      </c>
+    </row>
+    <row r="21" spans="8:19" x14ac:dyDescent="0.15">
+      <c r="H21" s="14">
+        <v>215</v>
+      </c>
+      <c r="I21" s="14">
+        <v>160</v>
+      </c>
+      <c r="J21" s="14">
+        <v>70</v>
+      </c>
+      <c r="K21" s="16" t="str">
+        <f t="shared" si="17"/>
+        <v>D7A046</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="M21" s="16" t="str">
+        <f t="shared" si="18"/>
+        <v>#D7A046</v>
+      </c>
+      <c r="N21" s="14">
+        <f t="shared" si="19"/>
+        <v>26</v>
+      </c>
+      <c r="O21" s="14">
+        <f t="shared" si="20"/>
+        <v>40</v>
+      </c>
+      <c r="P21" s="14">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="Q21" s="21" t="str">
+        <f t="shared" si="22"/>
+        <v>D508</v>
+      </c>
+      <c r="R21" s="19">
+        <f t="shared" si="10"/>
+        <v>54536</v>
+      </c>
+    </row>
+    <row r="22" spans="8:19" x14ac:dyDescent="0.15">
+      <c r="H22" s="14">
+        <v>90</v>
+      </c>
+      <c r="I22" s="14">
+        <v>90</v>
+      </c>
+      <c r="J22" s="14">
+        <v>90</v>
+      </c>
+      <c r="K22" s="16" t="str">
+        <f t="shared" si="17"/>
+        <v>5A5A5A</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="M22" s="16" t="str">
+        <f t="shared" si="18"/>
+        <v>#5A5A5A</v>
+      </c>
+      <c r="N22" s="14">
         <f t="shared" si="19"/>
         <v>11</v>
       </c>
-      <c r="Q17" s="21" t="str">
+      <c r="O22" s="14">
         <f t="shared" si="20"/>
-        <v>7DAB</v>
-      </c>
-    </row>
-    <row r="18" spans="8:19" x14ac:dyDescent="0.15">
-      <c r="H18" s="14">
-        <v>76</v>
-      </c>
-      <c r="I18" s="14">
-        <v>106</v>
-      </c>
-      <c r="J18" s="14">
-        <v>36</v>
-      </c>
-      <c r="K18" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>4C6A24</v>
-      </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="16" t="str">
-        <f t="shared" si="16"/>
-        <v>#4C6A24</v>
-      </c>
-      <c r="N18" s="14">
+        <v>22</v>
+      </c>
+      <c r="P22" s="14">
+        <f t="shared" si="21"/>
+        <v>11</v>
+      </c>
+      <c r="Q22" s="21" t="str">
+        <f t="shared" si="22"/>
+        <v>5ACB</v>
+      </c>
+      <c r="R22" s="19">
+        <f t="shared" si="10"/>
+        <v>23243</v>
+      </c>
+    </row>
+    <row r="23" spans="8:19" x14ac:dyDescent="0.15">
+      <c r="H23" s="14">
+        <v>247</v>
+      </c>
+      <c r="I23" s="14">
+        <v>195</v>
+      </c>
+      <c r="J23" s="14">
+        <v>123</v>
+      </c>
+      <c r="K23" s="14" t="str">
         <f t="shared" si="17"/>
-        <v>9</v>
-      </c>
-      <c r="O18" s="14">
+        <v>F7C37B</v>
+      </c>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14" t="str">
         <f t="shared" si="18"/>
-        <v>26</v>
-      </c>
-      <c r="P18" s="14">
+        <v>#F7C37B</v>
+      </c>
+      <c r="N23" s="14">
         <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="Q18" s="21" t="str">
+        <v>30</v>
+      </c>
+      <c r="O23" s="14">
         <f t="shared" si="20"/>
-        <v>4B44</v>
-      </c>
-    </row>
-    <row r="19" spans="8:19" x14ac:dyDescent="0.15">
-      <c r="H19" s="14">
-        <v>175</v>
-      </c>
-      <c r="I19" s="14">
-        <v>68</v>
-      </c>
-      <c r="J19" s="14">
         <v>48</v>
       </c>
-      <c r="K19" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>AF4430</v>
-      </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="16" t="str">
-        <f t="shared" si="16"/>
-        <v>#AF4430</v>
-      </c>
-      <c r="N19" s="14">
-        <f t="shared" si="17"/>
-        <v>21</v>
-      </c>
-      <c r="O19" s="14">
-        <f t="shared" si="18"/>
-        <v>17</v>
-      </c>
-      <c r="P19" s="14">
-        <f t="shared" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="Q19" s="21" t="str">
-        <f t="shared" si="20"/>
-        <v>AA26</v>
-      </c>
-    </row>
-    <row r="20" spans="8:19" x14ac:dyDescent="0.15">
-      <c r="H20" s="14">
-        <v>215</v>
-      </c>
-      <c r="I20" s="14">
-        <v>160</v>
-      </c>
-      <c r="J20" s="14">
-        <v>70</v>
-      </c>
-      <c r="K20" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>D7A046</v>
-      </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="16" t="str">
-        <f t="shared" si="16"/>
-        <v>#D7A046</v>
-      </c>
-      <c r="N20" s="14">
-        <f t="shared" si="17"/>
-        <v>26</v>
-      </c>
-      <c r="O20" s="14">
-        <f t="shared" si="18"/>
-        <v>40</v>
-      </c>
-      <c r="P20" s="14">
-        <f t="shared" si="19"/>
-        <v>8</v>
-      </c>
-      <c r="Q20" s="21" t="str">
-        <f t="shared" si="20"/>
-        <v>D508</v>
-      </c>
-    </row>
-    <row r="21" spans="8:19" x14ac:dyDescent="0.15">
-      <c r="H21" s="14">
-        <v>90</v>
-      </c>
-      <c r="I21" s="14">
-        <v>90</v>
-      </c>
-      <c r="J21" s="14">
-        <v>90</v>
-      </c>
-      <c r="K21" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>5A5A5A</v>
-      </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="16" t="str">
-        <f t="shared" si="16"/>
-        <v>#5A5A5A</v>
-      </c>
-      <c r="N21" s="14">
-        <f t="shared" si="17"/>
-        <v>11</v>
-      </c>
-      <c r="O21" s="14">
-        <f t="shared" si="18"/>
-        <v>22</v>
-      </c>
-      <c r="P21" s="14">
-        <f t="shared" si="19"/>
-        <v>11</v>
-      </c>
-      <c r="Q21" s="21" t="str">
-        <f t="shared" si="20"/>
-        <v>5ACB</v>
-      </c>
-    </row>
-    <row r="22" spans="8:19" x14ac:dyDescent="0.15">
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-    </row>
-    <row r="23" spans="8:19" x14ac:dyDescent="0.15">
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
+      <c r="P23" s="14">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="Q23" s="14" t="str">
+        <f t="shared" si="22"/>
+        <v>F60F</v>
+      </c>
+      <c r="R23" s="19">
+        <f t="shared" si="10"/>
+        <v>62991</v>
+      </c>
       <c r="S23" s="14"/>
     </row>
     <row r="24" spans="8:19" x14ac:dyDescent="0.15">
@@ -2612,6 +2848,19 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
+    </row>
+    <row r="27" spans="8:19" x14ac:dyDescent="0.15">
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2639,7 +2888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>

--- a/tool/3_公式/color.xlsx
+++ b/tool/3_公式/color.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>color-R</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#00ffff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#00E5EE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,6 +189,26 @@
   </si>
   <si>
     <t>#080c08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#E9F0ED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +216,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +263,24 @@
       <b/>
       <sz val="10"/>
       <color theme="9" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -309,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -350,6 +384,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -658,7 +699,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -674,11 +715,11 @@
     <col min="15" max="15" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
@@ -687,30 +728,30 @@
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L1" s="12"/>
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>32</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>9</v>
@@ -720,7 +761,7 @@
       </c>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>8410</v>
       </c>
@@ -749,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="M3" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -789,10 +830,10 @@
         <v>#F6_0_0</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" s="1">
         <f>INT(HEX2DEC(LEFT(RIGHT($I4,6),2))/2^3)</f>
@@ -814,8 +855,15 @@
         <f t="shared" ref="N4:N5" si="6">+J4*2^11+K4*2^5+L4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P4">
+        <v>233</v>
+      </c>
+      <c r="Q4" t="str">
+        <f>DEC2HEX(P4)</f>
+        <v>E9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -840,21 +888,21 @@
         <v>#FF_FF_FF</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" ref="J5:J17" si="7">INT(HEX2DEC(LEFT(RIGHT($I5,6),2))/2^3)</f>
+        <f t="shared" ref="J5:J18" si="7">INT(HEX2DEC(LEFT(RIGHT($I5,6),2))/2^3)</f>
         <v>31</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" ref="K5:K17" si="8">INT(HEX2DEC(MID(RIGHT($I5,6),3,2))/2^2)</f>
+        <f t="shared" ref="K5:K18" si="8">INT(HEX2DEC(MID(RIGHT($I5,6),3,2))/2^2)</f>
         <v>63</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" ref="L5:L17" si="9">INT(HEX2DEC(RIGHT(RIGHT($I5,6),2))/2^3)</f>
+        <f t="shared" ref="L5:L18" si="9">INT(HEX2DEC(RIGHT(RIGHT($I5,6),2))/2^3)</f>
         <v>31</v>
       </c>
       <c r="M5" s="6" t="str">
@@ -865,8 +913,15 @@
         <f t="shared" si="6"/>
         <v>65535</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P5">
+        <v>240</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" ref="Q5:Q8" si="10">DEC2HEX(P5)</f>
+        <v>F0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>700</v>
       </c>
@@ -887,14 +942,14 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="str">
-        <f t="shared" ref="F6:F12" si="10">"#"&amp;DEC2HEX(C6*2^3+7*C6/31)&amp;"_"&amp;DEC2HEX(D6*2^2+3*D6/63)&amp;"_"&amp;DEC2HEX(E6*2^3+7*E6/31)</f>
+        <f t="shared" ref="F6:F12" si="11">"#"&amp;DEC2HEX(C6*2^3+7*C6/31)&amp;"_"&amp;DEC2HEX(D6*2^2+3*D6/63)&amp;"_"&amp;DEC2HEX(E6*2^3+7*E6/31)</f>
         <v>#0_E2_0</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="7"/>
@@ -916,8 +971,15 @@
         <f>+J6*2^11+K6*2^5+L6</f>
         <v>63488</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P6">
+        <v>237</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="10"/>
+        <v>ED</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -938,14 +1000,14 @@
         <v>0</v>
       </c>
       <c r="F7" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#0_1C_0</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="7"/>
@@ -964,11 +1026,11 @@
         <v>FFE0</v>
       </c>
       <c r="N7" s="14">
-        <f t="shared" ref="N7:N14" si="11">+J7*2^11+K7*2^5+L7</f>
+        <f t="shared" ref="N7:N14" si="12">+J7*2^11+K7*2^5+L7</f>
         <v>65504</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>40</v>
       </c>
@@ -989,14 +1051,14 @@
         <v>0</v>
       </c>
       <c r="F8" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#0_8_0</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="7"/>
@@ -1015,11 +1077,18 @@
         <v>7E0</v>
       </c>
       <c r="N8" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2016</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8">
+        <f>HEX2DEC(P8)</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
@@ -1040,14 +1109,14 @@
         <v>29</v>
       </c>
       <c r="F9" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#EE_E2_EE</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="7"/>
@@ -1066,11 +1135,18 @@
         <v>7FF</v>
       </c>
       <c r="N9" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2047</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" ref="Q9:Q11" si="13">HEX2DEC(P9)</f>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>83</v>
       </c>
@@ -1091,14 +1167,14 @@
         <v>3</v>
       </c>
       <c r="F10" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#0_10_18</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1">
         <f>INT(HEX2DEC(LEFT(RIGHT($I10,6),2))/2^3)</f>
@@ -1117,16 +1193,23 @@
         <v>1F</v>
       </c>
       <c r="N10" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="13"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>2104</v>
       </c>
       <c r="B11" s="14">
-        <f t="shared" ref="B11" si="12">HEX2DEC(A11)</f>
+        <f t="shared" ref="B11" si="14">HEX2DEC(A11)</f>
         <v>8452</v>
       </c>
       <c r="C11" s="8">
@@ -1142,7 +1225,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#20_20_20</v>
       </c>
       <c r="I11" s="9" t="s">
@@ -1165,16 +1248,23 @@
         <v>F81F</v>
       </c>
       <c r="N11" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>63519</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P11" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="13"/>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>861</v>
       </c>
       <c r="B12" s="14">
-        <f t="shared" ref="B12" si="13">HEX2DEC(A12)</f>
+        <f t="shared" ref="B12" si="15">HEX2DEC(A12)</f>
         <v>2145</v>
       </c>
       <c r="C12" s="8">
@@ -1190,34 +1280,34 @@
         <v>1</v>
       </c>
       <c r="F12" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#8_C_8</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="8"/>
-        <v>63</v>
-      </c>
-      <c r="L12" s="1">
-        <f t="shared" si="9"/>
-        <v>31</v>
+        <v>45</v>
+      </c>
+      <c r="J12" s="16">
+        <f>INT(HEX2DEC(LEFT(RIGHT($I12,6),2))/2^3)</f>
+        <v>29</v>
+      </c>
+      <c r="K12" s="16">
+        <f>INT(HEX2DEC(MID(RIGHT($I12,6),3,2))/2^2)</f>
+        <v>60</v>
+      </c>
+      <c r="L12" s="16">
+        <f>INT(HEX2DEC(RIGHT(RIGHT($I12,6),2))/2^3)</f>
+        <v>29</v>
       </c>
       <c r="M12" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>7FF</v>
-      </c>
-      <c r="N12" s="14">
-        <f t="shared" si="11"/>
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+        <v>EF9D</v>
+      </c>
+      <c r="N12" s="14" t="e">
+        <f>+#REF!*2^11+#REF!*2^5+#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1244,14 +1334,14 @@
         <v>448</v>
       </c>
       <c r="N13" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1096</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="I14" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="7"/>
@@ -1266,17 +1356,17 @@
         <v>29</v>
       </c>
       <c r="M14" s="6" t="str">
-        <f t="shared" ref="M14" si="14">DEC2HEX(J14*2^11+K14*2^5+L14)</f>
+        <f t="shared" ref="M14" si="16">DEC2HEX(J14*2^11+K14*2^5+L14)</f>
         <v>73D</v>
       </c>
       <c r="N14" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1853</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="I15" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="7"/>
@@ -1299,9 +1389,9 @@
         <v>12678</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="I16" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="7"/>
@@ -1316,17 +1406,17 @@
         <v>12</v>
       </c>
       <c r="M16" s="6" t="str">
-        <f t="shared" ref="M16:M17" si="15">DEC2HEX(J16*2^11+K16*2^5+L16)</f>
+        <f t="shared" ref="M16:M17" si="17">DEC2HEX(J16*2^11+K16*2^5+L16)</f>
         <v>632C</v>
       </c>
       <c r="N16" s="14">
-        <f t="shared" ref="N16:N17" si="16">+J16*2^11+K16*2^5+L16</f>
+        <f t="shared" ref="N16:N17" si="18">+J16*2^11+K16*2^5+L16</f>
         <v>25388</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="I17" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="7"/>
@@ -1341,37 +1431,43 @@
         <v>1</v>
       </c>
       <c r="M17" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>861</v>
       </c>
       <c r="N17" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2145</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="M18" s="6" t="str">
+        <f>DEC2HEX(J12*2^11+K12*2^5+L12)</f>
+        <v>EF9D</v>
+      </c>
+      <c r="N18" s="14">
+        <f>+J12*2^11+K12*2^5+L12</f>
+        <v>61341</v>
+      </c>
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="E19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="F19" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1387,138 +1483,138 @@
         <v>33808</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" ref="C20:C29" si="17">INT(HEX2DEC($A20)/HEX2DEC(800))</f>
+        <f t="shared" ref="C20:C29" si="19">INT(HEX2DEC($A20)/HEX2DEC(800))</f>
         <v>16</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" ref="D20:D29" si="18">INT((HEX2DEC($A20)-INT(HEX2DEC($A20)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))</f>
+        <f t="shared" ref="D20:D29" si="20">INT((HEX2DEC($A20)-INT(HEX2DEC($A20)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))</f>
         <v>32</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" ref="E20:E29" si="19">(HEX2DEC($A20)-INT(HEX2DEC($A20)/HEX2DEC(800))*HEX2DEC(800)-INT((HEX2DEC($A20)-INT(HEX2DEC($A20)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))*HEX2DEC(20))</f>
+        <f t="shared" ref="E20:E29" si="21">(HEX2DEC($A20)-INT(HEX2DEC($A20)/HEX2DEC(800))*HEX2DEC(800)-INT((HEX2DEC($A20)-INT(HEX2DEC($A20)/HEX2DEC(800))*HEX2DEC(800))/HEX2DEC(20))*HEX2DEC(20))</f>
         <v>16</v>
       </c>
       <c r="F20" s="6" t="str">
-        <f t="shared" ref="F20:F30" si="20">"#"&amp;DEC2HEX(C20*2^3+7*C20/31)&amp;"_"&amp;DEC2HEX(D20*2^2+3*D20/63)&amp;"_"&amp;DEC2HEX(E20*2^3+7*E20/31)</f>
+        <f t="shared" ref="F20:F32" si="22">"#"&amp;DEC2HEX(C20*2^3+7*C20/31)&amp;"_"&amp;DEC2HEX(D20*2^2+3*D20/63)&amp;"_"&amp;DEC2HEX(E20*2^3+7*E20/31)</f>
         <v>#83_81_83</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" s="14" t="str">
-        <f t="shared" ref="A21:A29" si="21">DEC2HEX(B21)</f>
+        <f t="shared" ref="A21:A29" si="23">DEC2HEX(B21)</f>
         <v>F000</v>
       </c>
       <c r="B21" s="9">
         <v>61440</v>
       </c>
       <c r="C21" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
       <c r="D21" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E21" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F21" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#F6_0_0</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>FFFF</v>
       </c>
       <c r="B22" s="9">
         <v>65535</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" si="17"/>
-        <v>31</v>
-      </c>
-      <c r="D22" s="8">
-        <f t="shared" si="18"/>
-        <v>63</v>
-      </c>
-      <c r="E22" s="8">
         <f t="shared" si="19"/>
         <v>31</v>
       </c>
+      <c r="D22" s="8">
+        <f t="shared" si="20"/>
+        <v>63</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="21"/>
+        <v>31</v>
+      </c>
       <c r="F22" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#FF_FF_FF</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>700</v>
       </c>
       <c r="B23" s="9">
         <v>1792</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>56</v>
       </c>
       <c r="E23" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F23" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#0_E2_0</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>E0</v>
       </c>
       <c r="B24" s="9">
         <v>224</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D24" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F24" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#0_1C_0</v>
       </c>
       <c r="I24" s="10" t="str">
@@ -1535,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="11" t="str">
-        <f t="shared" ref="M24:M30" si="22">DEC2HEX(J24*2^11+K24*2^5+L24)</f>
+        <f t="shared" ref="M24:M30" si="24">DEC2HEX(J24*2^11+K24*2^5+L24)</f>
         <v>0</v>
       </c>
       <c r="N24" s="14">
@@ -1545,30 +1641,30 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>40</v>
       </c>
       <c r="B25" s="9">
         <v>64</v>
       </c>
       <c r="C25" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D25" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="E25" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F25" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#0_8_0</v>
       </c>
       <c r="I25" s="10" t="str">
-        <f t="shared" ref="I25:I30" si="23">"#"&amp;RIGHT("000000"&amp;DEC2HEX(J25)&amp;DEC2HEX(K25)&amp;DEC2HEX(L25),6)</f>
+        <f t="shared" ref="I25:I30" si="25">"#"&amp;RIGHT("000000"&amp;DEC2HEX(J25)&amp;DEC2HEX(K25)&amp;DEC2HEX(L25),6)</f>
         <v>#1F3F1F</v>
       </c>
       <c r="J25" s="9">
@@ -1581,41 +1677,41 @@
         <v>31</v>
       </c>
       <c r="M25" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>FFFF</v>
       </c>
       <c r="N25" s="14">
-        <f t="shared" ref="N25:N30" si="24">+J25*2^11+K25*2^5+L25</f>
+        <f t="shared" ref="N25:N30" si="26">+J25*2^11+K25*2^5+L25</f>
         <v>65535</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>EF1D</v>
       </c>
       <c r="B26" s="9">
         <v>61213</v>
       </c>
       <c r="C26" s="8">
-        <f t="shared" si="17"/>
-        <v>29</v>
-      </c>
-      <c r="D26" s="8">
-        <f t="shared" si="18"/>
-        <v>56</v>
-      </c>
-      <c r="E26" s="8">
         <f t="shared" si="19"/>
         <v>29</v>
       </c>
+      <c r="D26" s="8">
+        <f t="shared" si="20"/>
+        <v>56</v>
+      </c>
+      <c r="E26" s="8">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
       <c r="F26" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#EE_E2_EE</v>
       </c>
       <c r="G26"/>
       <c r="I26" s="10" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#001F00</v>
       </c>
       <c r="J26" s="9">
@@ -1628,42 +1724,42 @@
         <v>0</v>
       </c>
       <c r="M26" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>F800</v>
       </c>
       <c r="N26" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>63488</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>83</v>
       </c>
       <c r="B27" s="9">
         <v>131</v>
       </c>
       <c r="C27" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D27" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="E27" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="F27" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#0_10_18</v>
       </c>
       <c r="G27"/>
       <c r="H27" s="8"/>
       <c r="I27" s="10" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#01F3F0</v>
       </c>
       <c r="J27" s="9">
@@ -1676,42 +1772,42 @@
         <v>0</v>
       </c>
       <c r="M27" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>FFE0</v>
       </c>
       <c r="N27" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>65504</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2104</v>
       </c>
       <c r="B28" s="9">
         <v>8452</v>
       </c>
       <c r="C28" s="8">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="D28" s="8">
-        <f t="shared" si="18"/>
-        <v>8</v>
-      </c>
-      <c r="E28" s="8">
         <f t="shared" si="19"/>
         <v>4</v>
       </c>
+      <c r="D28" s="8">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="E28" s="8">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
       <c r="F28" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#20_20_20</v>
       </c>
       <c r="G28"/>
       <c r="H28" s="8"/>
       <c r="I28" s="10" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#0003F0</v>
       </c>
       <c r="J28" s="9">
@@ -1724,42 +1820,42 @@
         <v>0</v>
       </c>
       <c r="M28" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7E0</v>
       </c>
       <c r="N28" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2016</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29" s="14" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>EF9D</v>
       </c>
       <c r="B29" s="9">
         <v>61341</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" si="17"/>
-        <v>29</v>
-      </c>
-      <c r="D29" s="8">
-        <f t="shared" si="18"/>
-        <v>60</v>
-      </c>
-      <c r="E29" s="8">
         <f t="shared" si="19"/>
         <v>29</v>
       </c>
+      <c r="D29" s="8">
+        <f t="shared" si="20"/>
+        <v>60</v>
+      </c>
+      <c r="E29" s="8">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
       <c r="F29" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#EE_F2_EE</v>
       </c>
       <c r="G29"/>
       <c r="H29" s="8"/>
       <c r="I29" s="10" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#003F1F</v>
       </c>
       <c r="J29" s="9">
@@ -1772,11 +1868,11 @@
         <v>31</v>
       </c>
       <c r="M29" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7FF</v>
       </c>
       <c r="N29" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2047</v>
       </c>
       <c r="O29" s="10"/>
@@ -1796,7 +1892,7 @@
       <c r="G30"/>
       <c r="H30" s="8"/>
       <c r="I30" s="10" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#00001F</v>
       </c>
       <c r="J30" s="9">
@@ -1809,11 +1905,11 @@
         <v>31</v>
       </c>
       <c r="M30" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1F</v>
       </c>
       <c r="N30" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
       <c r="O30" s="10"/>
@@ -1824,9 +1920,22 @@
       <c r="T30" s="10"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C31" s="17">
+        <v>28</v>
+      </c>
+      <c r="D31" s="17">
+        <v>60</v>
+      </c>
+      <c r="E31" s="17">
+        <v>28</v>
+      </c>
+      <c r="F31" s="6" t="str">
+        <f t="shared" si="22"/>
+        <v>#E6_F2_E6</v>
+      </c>
       <c r="H31" s="8"/>
       <c r="I31" s="10" t="str">
-        <f t="shared" ref="I31" si="25">"#"&amp;RIGHT("000000"&amp;DEC2HEX(J31)&amp;DEC2HEX(K31)&amp;DEC2HEX(L31),6)</f>
+        <f t="shared" ref="I31" si="27">"#"&amp;RIGHT("000000"&amp;DEC2HEX(J31)&amp;DEC2HEX(K31)&amp;DEC2HEX(L31),6)</f>
         <v>#204020</v>
       </c>
       <c r="J31" s="9">
@@ -1839,11 +1948,11 @@
         <v>32</v>
       </c>
       <c r="M31" s="11" t="str">
-        <f t="shared" ref="M31" si="26">DEC2HEX(J31*2^11+K31*2^5+L31)</f>
+        <f t="shared" ref="M31:M32" si="28">DEC2HEX(J31*2^11+K31*2^5+L31)</f>
         <v>10820</v>
       </c>
       <c r="N31" s="14">
-        <f t="shared" ref="N31" si="27">+J31*2^11+K31*2^5+L31</f>
+        <f t="shared" ref="N31" si="29">+J31*2^11+K31*2^5+L31</f>
         <v>67616</v>
       </c>
       <c r="O31" s="10"/>
@@ -1854,12 +1963,34 @@
       <c r="T31" s="10"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C32" s="17">
+        <v>29</v>
+      </c>
+      <c r="D32" s="17">
+        <v>59</v>
+      </c>
+      <c r="E32" s="17">
+        <v>29</v>
+      </c>
+      <c r="F32" s="6" t="str">
+        <f t="shared" si="22"/>
+        <v>#EE_EE_EE</v>
+      </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="10"/>
+      <c r="J32" s="8">
+        <v>29</v>
+      </c>
+      <c r="K32" s="8">
+        <v>60</v>
+      </c>
+      <c r="L32" s="8">
+        <v>29</v>
+      </c>
+      <c r="M32" s="11" t="str">
+        <f>DEC2HEX(J32*2^11+K32*2^5+L32)</f>
+        <v>EF9D</v>
+      </c>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
@@ -1871,10 +2002,19 @@
     <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="10"/>
+      <c r="J33" s="17">
+        <v>28</v>
+      </c>
+      <c r="K33" s="17">
+        <v>60</v>
+      </c>
+      <c r="L33" s="17">
+        <v>28</v>
+      </c>
+      <c r="M33" s="11" t="str">
+        <f t="shared" ref="M33:M34" si="30">DEC2HEX(J33*2^11+K33*2^5+L33)</f>
+        <v>E79C</v>
+      </c>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
@@ -1886,10 +2026,19 @@
     <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="10"/>
+      <c r="J34" s="17">
+        <v>29</v>
+      </c>
+      <c r="K34" s="17">
+        <v>59</v>
+      </c>
+      <c r="L34" s="17">
+        <v>29</v>
+      </c>
+      <c r="M34" s="11" t="str">
+        <f t="shared" si="30"/>
+        <v>EF7D</v>
+      </c>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
